--- a/Code/Results/Cases/Case_2_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_bus/vm_pu.xlsx
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057851</v>
+        <v>0.9571825583057852</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769893</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702914</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.970642461629057</v>
+        <v>0.9706424616290569</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922296</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9660706434537709</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -516,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9435740419925934</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9576541208834083</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -530,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9517730114689356</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411972</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088965216</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -586,13 +586,13 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9490745509764519</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -600,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.933278105073729</v>
+        <v>0.9332781050737294</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782936</v>
+        <v>0.9494987508782939</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9543373515865726</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -656,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684966</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816591</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -670,7 +670,7 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9488714019981064</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -698,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572514</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -712,13 +712,13 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963313</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
+        <v>0.9475391330285313</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442547</v>
+        <v>0.9533716596442546</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -740,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>0.9463835801718017</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>0.9598754494005832</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_bus/vm_pu.xlsx
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057852</v>
+        <v>0.9571825583057851</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769893</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702913</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290569</v>
+        <v>0.970642461629057</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922296</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537709</v>
+        <v>0.966070643453771</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -516,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925934</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834083</v>
+        <v>0.9576541208834081</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -530,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689358</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411972</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965214</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -586,13 +586,13 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9490745509764514</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -600,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737294</v>
+        <v>0.933278105073729</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9494987508782936</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -656,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
+        <v>0.9546352493816592</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -670,7 +670,7 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9488714019981065</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -698,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572514</v>
+        <v>0.9460223821572517</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -712,13 +712,13 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963313</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285313</v>
+        <v>0.9475391330285317</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442546</v>
+        <v>0.9533716596442547</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -740,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>0.959875449400583</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_bus/vm_pu.xlsx
@@ -417,336 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>0.9543542650395122</v>
+      </c>
+      <c r="D2">
+        <v>0.9806391533331116</v>
+      </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
+      <c r="F2">
+        <v>0.9286134723373404</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.025620951934016</v>
+      </c>
+      <c r="J2">
+        <v>0.9779915542533228</v>
+      </c>
+      <c r="K2">
+        <v>0.9923749717775142</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
+      <c r="M2">
+        <v>0.941165857686185</v>
+      </c>
+      <c r="N2">
+        <v>0.979380414437562</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9671214125926431</v>
+      </c>
+      <c r="D3">
+        <v>0.9903707202714153</v>
+      </c>
       <c r="E3">
-        <v>0.9571825583057851</v>
+        <v>0.9571825583057848</v>
+      </c>
+      <c r="F3">
+        <v>0.9447706366631108</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.029326020757013</v>
+      </c>
+      <c r="J3">
+        <v>0.9885503572108623</v>
+      </c>
+      <c r="K3">
+        <v>1.001128310474255</v>
+      </c>
       <c r="L3">
-        <v>0.9683942856474069</v>
+        <v>0.9683942856474066</v>
+      </c>
+      <c r="M3">
+        <v>0.9561626139387331</v>
+      </c>
+      <c r="N3">
+        <v>0.9899542121064124</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9749232046807327</v>
+      </c>
+      <c r="D4">
+        <v>0.9963210168620923</v>
+      </c>
       <c r="E4">
-        <v>0.9600238894088614</v>
+        <v>0.9600238894088612</v>
+      </c>
+      <c r="F4">
+        <v>0.9546259145615363</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.031571770317809</v>
+      </c>
+      <c r="J4">
+        <v>0.9949908820603742</v>
+      </c>
+      <c r="K4">
+        <v>1.00646404771354</v>
+      </c>
       <c r="L4">
-        <v>0.9706300002952758</v>
+        <v>0.9706300002952756</v>
+      </c>
+      <c r="M4">
+        <v>0.9653046750001235</v>
+      </c>
+      <c r="N4">
+        <v>0.9964038832399494</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9781046353888309</v>
+      </c>
+      <c r="D5">
+        <v>0.998747937118895</v>
+      </c>
       <c r="E5">
         <v>0.9612062874769892</v>
       </c>
+      <c r="F5">
+        <v>0.9586415746794335</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.032483000682741</v>
+      </c>
+      <c r="J5">
+        <v>0.9976143519988742</v>
+      </c>
+      <c r="K5">
+        <v>1.008636516737796</v>
       </c>
       <c r="L5">
         <v>0.9715596031702913</v>
+      </c>
+      <c r="M5">
+        <v>0.9690283027158269</v>
+      </c>
+      <c r="N5">
+        <v>0.9990310788066784</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9786333365573184</v>
+      </c>
+      <c r="D6">
+        <v>0.9991512712712021</v>
+      </c>
       <c r="E6">
         <v>0.9614041218017086</v>
       </c>
+      <c r="F6">
+        <v>0.9593087563674658</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.032634160587676</v>
+      </c>
+      <c r="J6">
+        <v>0.9980501599267101</v>
+      </c>
+      <c r="K6">
+        <v>1.008997343630841</v>
       </c>
       <c r="L6">
         <v>0.9717150950965047</v>
+      </c>
+      <c r="M6">
+        <v>0.9696468777411472</v>
+      </c>
+      <c r="N6">
+        <v>0.9994675056317595</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9749660881973921</v>
+      </c>
+      <c r="D7">
+        <v>0.9963537285379137</v>
+      </c>
       <c r="E7">
-        <v>0.9600397355691358</v>
+        <v>0.9600397355691361</v>
+      </c>
+      <c r="F7">
+        <v>0.9546800540133891</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.031584071344317</v>
+      </c>
+      <c r="J7">
+        <v>0.9950262560701137</v>
+      </c>
+      <c r="K7">
+        <v>1.0064933446381</v>
+      </c>
       <c r="L7">
-        <v>0.970642461629057</v>
+        <v>0.9706424616290571</v>
+      </c>
+      <c r="M7">
+        <v>0.9653548830574721</v>
+      </c>
+      <c r="N7">
+        <v>0.99643930748484</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9587717617133221</v>
+      </c>
+      <c r="D8">
+        <v>0.9840053389521722</v>
+      </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
+      </c>
+      <c r="F8">
+        <v>0.9342086581099501</v>
       </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.026906775869277</v>
+      </c>
+      <c r="J8">
+        <v>0.9816474654651888</v>
+      </c>
+      <c r="K8">
+        <v>0.995406417368019</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
+      </c>
+      <c r="M8">
+        <v>0.9463602736491337</v>
+      </c>
+      <c r="N8">
+        <v>0.9830415174626872</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9260488599545238</v>
+      </c>
+      <c r="D9">
+        <v>0.9591051974091181</v>
+      </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9435740419923924</v>
+      </c>
+      <c r="F9">
+        <v>0.8926068158526944</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.017305224953845</v>
+      </c>
+      <c r="J9">
+        <v>0.9545134004437199</v>
+      </c>
+      <c r="K9">
+        <v>0.9728985446515547</v>
+      </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9576541208832517</v>
+      </c>
+      <c r="M9">
+        <v>0.907721041128557</v>
+      </c>
+      <c r="N9">
+        <v>0.9558689189565673</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9001146605867931</v>
+      </c>
+      <c r="D10">
+        <v>0.9394483646595532</v>
+      </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547164</v>
+      </c>
+      <c r="F10">
+        <v>0.859297612418033</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.009605161516645</v>
+      </c>
+      <c r="J10">
+        <v>0.9329399007946509</v>
+      </c>
+      <c r="K10">
+        <v>0.9550043009740815</v>
+      </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9517730114689266</v>
+      </c>
+      <c r="M10">
+        <v>0.8767754755336976</v>
+      </c>
+      <c r="N10">
+        <v>0.9342647824634817</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.8874338860358397</v>
+      </c>
+      <c r="D11">
+        <v>0.9298695212177188</v>
+      </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
+      <c r="F11">
+        <v>0.8428632731560551</v>
+      </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.005823571382005</v>
+      </c>
+      <c r="J11">
+        <v>0.9223751033362531</v>
+      </c>
+      <c r="K11">
+        <v>0.9462473564684011</v>
+      </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9491556125416571</v>
+      </c>
+      <c r="M11">
+        <v>0.8615128256431638</v>
+      </c>
+      <c r="N11">
+        <v>0.9236849817808935</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.8824410524034587</v>
+      </c>
+      <c r="D12">
+        <v>0.9261046440999231</v>
+      </c>
       <c r="E12">
-        <v>0.9316058186411972</v>
+        <v>0.9316058186411971</v>
+      </c>
+      <c r="F12">
+        <v>0.8363610831871512</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.004332781934057</v>
+      </c>
+      <c r="J12">
+        <v>0.9182129394969317</v>
+      </c>
+      <c r="K12">
+        <v>0.9427990873720166</v>
+      </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252506</v>
+      </c>
+      <c r="M12">
+        <v>0.8554761126403596</v>
+      </c>
+      <c r="N12">
+        <v>0.9195169071915136</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.883526209038447</v>
+      </c>
+      <c r="D13">
+        <v>0.9269225815388709</v>
+      </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9318723593367009</v>
+      </c>
+      <c r="F13">
+        <v>0.8377758970121207</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.004656864786737</v>
+      </c>
+      <c r="J13">
+        <v>0.9191176673646194</v>
+      </c>
+      <c r="K13">
+        <v>0.943548546311464</v>
+      </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088964247</v>
+      </c>
+      <c r="M13">
+        <v>0.85678953475769</v>
+      </c>
+      <c r="N13">
+        <v>0.9204229198765472</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.8870274289594692</v>
+      </c>
+      <c r="D14">
+        <v>0.9295628851627604</v>
+      </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194318</v>
+      </c>
+      <c r="F14">
+        <v>0.8423346404106691</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.005702241700311</v>
+      </c>
+      <c r="J14">
+        <v>0.9220363190477503</v>
+      </c>
+      <c r="K14">
+        <v>0.9459666418874432</v>
+      </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9490745509764518</v>
+      </c>
+      <c r="M14">
+        <v>0.8610219904981864</v>
+      </c>
+      <c r="N14">
+        <v>0.9233457163798422</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.8891447370155237</v>
+      </c>
+      <c r="D15">
+        <v>0.9311604839545942</v>
+      </c>
       <c r="E15">
-        <v>0.933278105073729</v>
+        <v>0.9332781050717471</v>
+      </c>
+      <c r="F15">
+        <v>0.8450870612082958</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.006334200074136</v>
+      </c>
+      <c r="J15">
+        <v>0.9238010088515139</v>
+      </c>
+      <c r="K15">
+        <v>0.9474289246080779</v>
+      </c>
       <c r="L15">
-        <v>0.9494987508782936</v>
+        <v>0.9494987508767191</v>
+      </c>
+      <c r="M15">
+        <v>0.8635776947933221</v>
+      </c>
+      <c r="N15">
+        <v>0.9251129122455396</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9009207999980376</v>
+      </c>
+      <c r="D16">
+        <v>0.9400580865517485</v>
+      </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017256</v>
+      </c>
+      <c r="F16">
+        <v>0.860338765151039</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.009845279936435</v>
+      </c>
+      <c r="J16">
+        <v>0.9336111993566834</v>
+      </c>
+      <c r="K16">
+        <v>0.9555609025498607</v>
+      </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.9519451749175714</v>
+      </c>
+      <c r="M16">
+        <v>0.8777425844836251</v>
+      </c>
+      <c r="N16">
+        <v>0.9349370343464711</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9078818643940196</v>
+      </c>
+      <c r="D17">
+        <v>0.9453267233416779</v>
+      </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9382760156855668</v>
+      </c>
+      <c r="F17">
+        <v>0.8693126393570153</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.011916980858065</v>
+      </c>
+      <c r="J17">
+        <v>0.9394061576073824</v>
+      </c>
+      <c r="K17">
+        <v>0.9603664556933227</v>
+      </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.9534603602068051</v>
+      </c>
+      <c r="M17">
+        <v>0.8860789244025703</v>
+      </c>
+      <c r="N17">
+        <v>0.9407402221025775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9118075942683982</v>
+      </c>
+      <c r="D18">
+        <v>0.9483007835443631</v>
+      </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>0.9393832867215687</v>
+      </c>
+      <c r="F18">
+        <v>0.8743610255333824</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.01308379950836</v>
+      </c>
+      <c r="J18">
+        <v>0.9426728073390389</v>
+      </c>
+      <c r="K18">
+        <v>0.9630758597214467</v>
+      </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.9543373515865728</v>
+      </c>
+      <c r="M18">
+        <v>0.890769063150715</v>
+      </c>
+      <c r="N18">
+        <v>0.9440115108515426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9131248705011733</v>
+      </c>
+      <c r="D19">
+        <v>0.9492991601754589</v>
+      </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814680088</v>
+      </c>
+      <c r="F19">
+        <v>0.8760530904671081</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.013475050736083</v>
+      </c>
+      <c r="J19">
+        <v>0.943768683585802</v>
+      </c>
+      <c r="K19">
+        <v>0.9639848603270368</v>
+      </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.9546352493812709</v>
+      </c>
+      <c r="M19">
+        <v>0.8923411007641605</v>
+      </c>
+      <c r="N19">
+        <v>0.945108943368275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9071493010638366</v>
+      </c>
+      <c r="D20">
+        <v>0.9447719648929028</v>
+      </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660141</v>
+      </c>
+      <c r="F20">
+        <v>0.8683696108087278</v>
       </c>
       <c r="G20">
         <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.011699117164404</v>
+      </c>
+      <c r="J20">
+        <v>0.9387964637555305</v>
+      </c>
+      <c r="K20">
+        <v>0.9598608029507871</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0.8852028433728535</v>
+      </c>
+      <c r="N20">
+        <v>0.9401296624155226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.8860048855279568</v>
+      </c>
+      <c r="D21">
+        <v>0.9287915785863566</v>
+      </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9324872132148881</v>
+      </c>
+      <c r="F21">
+        <v>0.8410041940088708</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.005396979900563</v>
+      </c>
+      <c r="J21">
+        <v>0.9211839839656489</v>
+      </c>
+      <c r="K21">
+        <v>0.9452604318010338</v>
+      </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.9488714019981056</v>
+      </c>
+      <c r="M21">
+        <v>0.8597867067238997</v>
+      </c>
+      <c r="N21">
+        <v>0.9224921708841599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.8710154184906022</v>
+      </c>
+      <c r="D22">
+        <v>0.9175041759136677</v>
+      </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651167</v>
+      </c>
+      <c r="F22">
+        <v>0.8214067238085161</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.000918716063171</v>
+      </c>
+      <c r="J22">
+        <v>0.9086834787727651</v>
+      </c>
+      <c r="K22">
+        <v>0.9349084275807976</v>
+      </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9460223821572522</v>
+      </c>
+      <c r="M22">
+        <v>0.8415977030015459</v>
+      </c>
+      <c r="N22">
+        <v>0.9099739135400743</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.8791533984567275</v>
+      </c>
+      <c r="D23">
+        <v>0.9236277193976529</v>
+      </c>
       <c r="E23">
-        <v>0.9308081199963313</v>
+        <v>0.9308081199963314</v>
+      </c>
+      <c r="F23">
+        <v>0.8320690501170142</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.003350712875935</v>
+      </c>
+      <c r="J23">
+        <v>0.9154715556824262</v>
+      </c>
+      <c r="K23">
+        <v>0.9405284999917103</v>
+      </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9475391330285318</v>
+      </c>
+      <c r="M23">
+        <v>0.8514920627478058</v>
+      </c>
+      <c r="N23">
+        <v>0.9167716302975503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9074807262108029</v>
+      </c>
+      <c r="D24">
+        <v>0.9450229392261423</v>
+      </c>
       <c r="E24">
-        <v>0.9381640424011831</v>
+        <v>0.9381640424011709</v>
+      </c>
+      <c r="F24">
+        <v>0.8687962928076711</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.011797687544317</v>
+      </c>
+      <c r="J24">
+        <v>0.9390723050248967</v>
+      </c>
+      <c r="K24">
+        <v>0.9600895718524945</v>
+      </c>
       <c r="L24">
-        <v>0.9533716596442547</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.953371659644245</v>
+      </c>
+      <c r="M24">
+        <v>0.8855992331386624</v>
+      </c>
+      <c r="N24">
+        <v>0.9404058954111308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9351149646206242</v>
+      </c>
+      <c r="D25">
+        <v>0.9659947712123849</v>
+      </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>0.9463835801717732</v>
+      </c>
+      <c r="F25">
+        <v>0.9041728293375005</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.019981207687961</v>
+      </c>
+      <c r="J25">
+        <v>0.962042267736186</v>
+      </c>
+      <c r="K25">
+        <v>0.9791449563316664</v>
+      </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>0.959875449400561</v>
+      </c>
+      <c r="M25">
+        <v>0.9184663585011242</v>
+      </c>
+      <c r="N25">
+        <v>0.9634084781041619</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9543542650395122</v>
+        <v>1.012439168470744</v>
       </c>
       <c r="D2">
-        <v>0.9806391533331116</v>
+        <v>1.027579349711606</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9286134723373404</v>
+        <v>1.017946205487488</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025620951934016</v>
+        <v>1.050423148117974</v>
       </c>
       <c r="J2">
-        <v>0.9779915542533228</v>
+        <v>1.034254086635541</v>
       </c>
       <c r="K2">
-        <v>0.9923749717775142</v>
+        <v>1.038667379834698</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.941165857686185</v>
+        <v>1.029161057102994</v>
       </c>
       <c r="N2">
-        <v>0.979380414437562</v>
+        <v>1.015090015606873</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9671214125926431</v>
+        <v>1.017262073610309</v>
       </c>
       <c r="D3">
-        <v>0.9903707202714153</v>
+        <v>1.031149005745497</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9447706366631108</v>
+        <v>1.023591120872991</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029326020757013</v>
+        <v>1.052275347610975</v>
       </c>
       <c r="J3">
-        <v>0.9885503572108623</v>
+        <v>1.037292968455811</v>
       </c>
       <c r="K3">
-        <v>1.001128310474255</v>
+        <v>1.041398257858545</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9561626139387331</v>
+        <v>1.033930791260929</v>
       </c>
       <c r="N3">
-        <v>0.9899542121064124</v>
+        <v>1.016116889795464</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9749232046807327</v>
+        <v>1.020310347351784</v>
       </c>
       <c r="D4">
-        <v>0.9963210168620923</v>
+        <v>1.033407236414686</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9546259145615363</v>
+        <v>1.027161945410423</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031571770317809</v>
+        <v>1.053434616058376</v>
       </c>
       <c r="J4">
-        <v>0.9949908820603742</v>
+        <v>1.039208404688095</v>
       </c>
       <c r="K4">
-        <v>1.00646404771354</v>
+        <v>1.043118515324886</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9653046750001235</v>
+        <v>1.036943239976727</v>
       </c>
       <c r="N4">
-        <v>0.9964038832399494</v>
+        <v>1.016763966301829</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9781046353888309</v>
+        <v>1.021575164337036</v>
       </c>
       <c r="D5">
-        <v>0.998747937118895</v>
+        <v>1.034344686188566</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9586415746794335</v>
+        <v>1.028644350934299</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032483000682741</v>
+        <v>1.053912860217825</v>
       </c>
       <c r="J5">
-        <v>0.9976143519988742</v>
+        <v>1.040001883933667</v>
       </c>
       <c r="K5">
-        <v>1.008636516737796</v>
+        <v>1.043830880091466</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.9690283027158269</v>
+        <v>1.038192680263311</v>
       </c>
       <c r="N5">
-        <v>0.9990310788066784</v>
+        <v>1.01703197524895</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9786333365573184</v>
+        <v>1.021786573521815</v>
       </c>
       <c r="D6">
-        <v>0.9991512712712021</v>
+        <v>1.034501401942667</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9593087563674658</v>
+        <v>1.02889217557653</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032634160587676</v>
+        <v>1.053992632976981</v>
       </c>
       <c r="J6">
-        <v>0.9980501599267101</v>
+        <v>1.04013443417225</v>
       </c>
       <c r="K6">
-        <v>1.008997343630841</v>
+        <v>1.043949864560659</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9696468777411472</v>
+        <v>1.038401489768338</v>
       </c>
       <c r="N6">
-        <v>0.9994675056317595</v>
+        <v>1.017076743161467</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9749660881973921</v>
+        <v>1.020327312567622</v>
       </c>
       <c r="D7">
-        <v>0.9963537285379137</v>
+        <v>1.033419808903486</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9546800540133891</v>
+        <v>1.027181826089278</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031584071344317</v>
+        <v>1.05344104182748</v>
       </c>
       <c r="J7">
-        <v>0.9950262560701137</v>
+        <v>1.039219052905404</v>
       </c>
       <c r="K7">
-        <v>1.0064933446381</v>
+        <v>1.043128076059286</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9653548830574721</v>
+        <v>1.036960000939403</v>
       </c>
       <c r="N7">
-        <v>0.99643930748484</v>
+        <v>1.016767563076374</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9587717617133221</v>
+        <v>1.014084513958907</v>
       </c>
       <c r="D8">
-        <v>0.9840053389521722</v>
+        <v>1.028796681777886</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9342086581099501</v>
+        <v>1.01987137869847</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026906775869277</v>
+        <v>1.051057403473497</v>
       </c>
       <c r="J8">
-        <v>0.9816474654651888</v>
+        <v>1.03529189644749</v>
       </c>
       <c r="K8">
-        <v>0.995406417368019</v>
+        <v>1.039600215541417</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9463602736491337</v>
+        <v>1.03078874241575</v>
       </c>
       <c r="N8">
-        <v>0.9830415174626872</v>
+        <v>1.015440737286578</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9260488599545238</v>
+        <v>1.002496568906841</v>
       </c>
       <c r="D9">
-        <v>0.9591051974091181</v>
+        <v>1.020234153228268</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.8926068158526944</v>
+        <v>1.006323462348126</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.017305224953845</v>
+        <v>1.046543245031118</v>
       </c>
       <c r="J9">
-        <v>0.9545134004437199</v>
+        <v>1.027961473871924</v>
       </c>
       <c r="K9">
-        <v>0.9728985446515547</v>
+        <v>1.033007259127608</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>0.907721041128557</v>
+        <v>1.019314772182933</v>
       </c>
       <c r="N9">
-        <v>0.9558689189565673</v>
+        <v>1.01296291626249</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9001146605867931</v>
+        <v>0.9943276166004417</v>
       </c>
       <c r="D10">
-        <v>0.9394483646595532</v>
+        <v>1.01421451523127</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547164</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.859297612418033</v>
+        <v>0.9967841799911308</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.009605161516645</v>
+        <v>1.043302469943837</v>
       </c>
       <c r="J10">
-        <v>0.9329399007946509</v>
+        <v>1.022768110978537</v>
       </c>
       <c r="K10">
-        <v>0.9550043009740815</v>
+        <v>1.028331779005083</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689266</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.8767754755336976</v>
+        <v>1.011211740828561</v>
       </c>
       <c r="N10">
-        <v>0.9342647824634817</v>
+        <v>1.011206975268051</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8874338860358397</v>
+        <v>0.9906730977363883</v>
       </c>
       <c r="D11">
-        <v>0.9298695212177188</v>
+        <v>1.011526330641162</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.8428632731560551</v>
+        <v>0.9925184660891745</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.005823571382005</v>
+        <v>1.041839292288101</v>
       </c>
       <c r="J11">
-        <v>0.9223751033362531</v>
+        <v>1.020439101016621</v>
       </c>
       <c r="K11">
-        <v>0.9462473564684011</v>
+        <v>1.026234102351124</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.8615128256431638</v>
+        <v>1.007582865953164</v>
       </c>
       <c r="N11">
-        <v>0.9236849817808935</v>
+        <v>1.010419462882836</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8824410524034587</v>
+        <v>0.9892968948452541</v>
       </c>
       <c r="D12">
-        <v>0.9261046440999231</v>
+        <v>1.010514826531105</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.8363610831871512</v>
+        <v>0.9909122997532055</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.004332781934057</v>
+        <v>1.041286333707376</v>
       </c>
       <c r="J12">
-        <v>0.9182129394969317</v>
+        <v>1.019561239757232</v>
       </c>
       <c r="K12">
-        <v>0.9427990873720166</v>
+        <v>1.025443314067632</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.8554761126403596</v>
+        <v>1.00621570164397</v>
       </c>
       <c r="N12">
-        <v>0.9195169071915136</v>
+        <v>1.01012262946683</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.883526209038447</v>
+        <v>0.9895929627604008</v>
       </c>
       <c r="D13">
-        <v>0.9269225815388709</v>
+        <v>1.010732397877901</v>
       </c>
       <c r="E13">
-        <v>0.9318723593367009</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.8377758970121207</v>
+        <v>0.9912578330232644</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.004656864786737</v>
+        <v>1.041405381686496</v>
       </c>
       <c r="J13">
-        <v>0.9191176673646194</v>
+        <v>1.01975013354752</v>
       </c>
       <c r="K13">
-        <v>0.943548546311464</v>
+        <v>1.025613477198209</v>
       </c>
       <c r="L13">
-        <v>0.9483836088964247</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.85678953475769</v>
+        <v>1.006509853672889</v>
       </c>
       <c r="N13">
-        <v>0.9204229198765472</v>
+        <v>1.010186500520411</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8870274289594692</v>
+        <v>0.9905597297695319</v>
       </c>
       <c r="D14">
-        <v>0.9295628851627604</v>
+        <v>1.011442988859719</v>
       </c>
       <c r="E14">
         <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.8423346404106691</v>
+        <v>0.9923861508056858</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.005702241700311</v>
+        <v>1.041793780587518</v>
       </c>
       <c r="J14">
-        <v>0.9220363190477503</v>
+        <v>1.020366801396505</v>
       </c>
       <c r="K14">
-        <v>0.9459666418874432</v>
+        <v>1.026168976350462</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764518</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.8610219904981864</v>
+        <v>1.007470255367114</v>
       </c>
       <c r="N14">
-        <v>0.9233457163798422</v>
+        <v>1.010395016007764</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8891447370155237</v>
+        <v>0.9911528666745272</v>
       </c>
       <c r="D15">
-        <v>0.9311604839545942</v>
+        <v>1.011879062998278</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717471</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>0.8450870612082958</v>
+        <v>0.9930784269159352</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.006334200074136</v>
+        <v>1.042031816473243</v>
       </c>
       <c r="J15">
-        <v>0.9238010088515139</v>
+        <v>1.020745037404439</v>
       </c>
       <c r="K15">
-        <v>0.9474289246080779</v>
+        <v>1.02650967862997</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767191</v>
+        <v>0.9494987508782939</v>
       </c>
       <c r="M15">
-        <v>0.8635776947933221</v>
+        <v>1.008059404251715</v>
       </c>
       <c r="N15">
-        <v>0.9251129122455396</v>
+        <v>1.010522910032305</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9009207999980376</v>
+        <v>0.9945675893327153</v>
       </c>
       <c r="D16">
-        <v>0.9400580865517485</v>
+        <v>1.014391140399772</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="F16">
-        <v>0.860338765151039</v>
+        <v>0.9970643184614948</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.009845279936435</v>
+        <v>1.043398274977315</v>
       </c>
       <c r="J16">
-        <v>0.9336111993566834</v>
+        <v>1.022920929957992</v>
       </c>
       <c r="K16">
-        <v>0.9555609025498607</v>
+        <v>1.02846940120006</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9519451749175716</v>
       </c>
       <c r="M16">
-        <v>0.8777425844836251</v>
+        <v>1.011449946348538</v>
       </c>
       <c r="N16">
-        <v>0.9349370343464711</v>
+        <v>1.011258647808871</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9078818643940196</v>
+        <v>0.9966773811662951</v>
       </c>
       <c r="D17">
-        <v>0.9453267233416779</v>
+        <v>1.01594454769832</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855668</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.8693126393570153</v>
+        <v>0.9995274399715702</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.011916980858065</v>
+        <v>1.044239061696253</v>
       </c>
       <c r="J17">
-        <v>0.9394061576073824</v>
+        <v>1.024263844236736</v>
       </c>
       <c r="K17">
-        <v>0.9603664556933227</v>
+        <v>1.029678669930503</v>
       </c>
       <c r="L17">
         <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.8860789244025703</v>
+        <v>1.013543759953259</v>
       </c>
       <c r="N17">
-        <v>0.9407402221025775</v>
+        <v>1.011712721811401</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9118075942683982</v>
+        <v>0.9978967495121243</v>
       </c>
       <c r="D18">
-        <v>0.9483007835443631</v>
+        <v>1.016842798832026</v>
       </c>
       <c r="E18">
         <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>0.8743610255333824</v>
+        <v>1.000951197722929</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.01308379950836</v>
+        <v>1.044723732586725</v>
       </c>
       <c r="J18">
-        <v>0.9426728073390389</v>
+        <v>1.025039451275581</v>
       </c>
       <c r="K18">
-        <v>0.9630758597214467</v>
+        <v>1.030377001724501</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865728</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>0.890769063150715</v>
+        <v>1.01475353243007</v>
       </c>
       <c r="N18">
-        <v>0.9440115108515426</v>
+        <v>1.011974969922349</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9131248705011733</v>
+        <v>0.9983106492288436</v>
       </c>
       <c r="D19">
-        <v>0.9492991601754589</v>
+        <v>1.01714777309705</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680088</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>0.8760530904671081</v>
+        <v>1.001434507744243</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.013475050736083</v>
+        <v>1.044888031880926</v>
       </c>
       <c r="J19">
-        <v>0.943768683585802</v>
+        <v>1.025302629012048</v>
       </c>
       <c r="K19">
-        <v>0.9639848603270368</v>
+        <v>1.030613943249918</v>
       </c>
       <c r="L19">
-        <v>0.9546352493812709</v>
+        <v>0.9546352493816594</v>
       </c>
       <c r="M19">
-        <v>0.8923411007641605</v>
+        <v>1.015164114822974</v>
       </c>
       <c r="N19">
-        <v>0.945108943368275</v>
+        <v>1.012063954560244</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9071493010638366</v>
+        <v>0.9964521906660457</v>
       </c>
       <c r="D20">
-        <v>0.9447719648929028</v>
+        <v>1.015778696242441</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.8683696108087278</v>
+        <v>0.9992645183588201</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.011699117164404</v>
+        <v>1.044149450821037</v>
       </c>
       <c r="J20">
-        <v>0.9387964637555305</v>
+        <v>1.024120562795963</v>
       </c>
       <c r="K20">
-        <v>0.9598608029507871</v>
+        <v>1.029549656707971</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.8852028433728535</v>
+        <v>1.013320312664697</v>
       </c>
       <c r="N20">
-        <v>0.9401296624155226</v>
+        <v>1.011664275096469</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8860048855279568</v>
+        <v>0.9902755681636877</v>
       </c>
       <c r="D21">
-        <v>0.9287915785863566</v>
+        <v>1.011234102329375</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148881</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.8410041940088708</v>
+        <v>0.9920544998498233</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.005396979900563</v>
+        <v>1.041679672163482</v>
       </c>
       <c r="J21">
-        <v>0.9211839839656489</v>
+        <v>1.020185566390192</v>
       </c>
       <c r="K21">
-        <v>0.9452604318010338</v>
+        <v>1.026005721695243</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981056</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.8597867067238997</v>
+        <v>1.007187982068404</v>
       </c>
       <c r="N21">
-        <v>0.9224921708841599</v>
+        <v>1.010333734514266</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8710154184906022</v>
+        <v>0.986282957277313</v>
       </c>
       <c r="D22">
-        <v>0.9175041759136677</v>
+        <v>1.008301158891364</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651167</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.8214067238085161</v>
+        <v>0.9873950032154239</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.000918716063171</v>
+        <v>1.040071775485896</v>
       </c>
       <c r="J22">
-        <v>0.9086834787727651</v>
+        <v>1.017637238694737</v>
       </c>
       <c r="K22">
-        <v>0.9349084275807976</v>
+        <v>1.023709942587627</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572522</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.8415977030015459</v>
+        <v>1.003220372641054</v>
       </c>
       <c r="N22">
-        <v>0.9099739135400743</v>
+        <v>1.009472068096992</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8791533984567275</v>
+        <v>0.9884102617276863</v>
       </c>
       <c r="D23">
-        <v>0.9236277193976529</v>
+        <v>1.009863390411363</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.8320690501170142</v>
+        <v>0.9898775554534958</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.003350712875935</v>
+        <v>1.040929537498884</v>
       </c>
       <c r="J23">
-        <v>0.9154715556824262</v>
+        <v>1.018995444464339</v>
       </c>
       <c r="K23">
-        <v>0.9405284999917103</v>
+        <v>1.024933606192197</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.8514920627478058</v>
+        <v>1.005334712067386</v>
       </c>
       <c r="N23">
-        <v>0.9167716302975503</v>
+        <v>1.009931316316517</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9074807262108029</v>
+        <v>0.9965539792042521</v>
       </c>
       <c r="D24">
-        <v>0.9450229392261423</v>
+        <v>1.015853661504883</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.8687962928076711</v>
+        <v>0.9993833612025914</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.011797687544317</v>
+        <v>1.044189959839799</v>
       </c>
       <c r="J24">
-        <v>0.9390723050248967</v>
+        <v>1.024185329230582</v>
       </c>
       <c r="K24">
-        <v>0.9600895718524945</v>
+        <v>1.029607973859856</v>
       </c>
       <c r="L24">
-        <v>0.953371659644245</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.8855992331386624</v>
+        <v>1.013421314369751</v>
       </c>
       <c r="N24">
-        <v>0.9404058954111308</v>
+        <v>1.011686174116449</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9351149646206242</v>
+        <v>1.005566723493636</v>
       </c>
       <c r="D25">
-        <v>0.9659947712123849</v>
+        <v>1.022500176606512</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717732</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9041728293375005</v>
+        <v>1.00991068960245</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.019981207687961</v>
+        <v>1.047749453606124</v>
       </c>
       <c r="J25">
-        <v>0.962042267736186</v>
+        <v>1.029908186602809</v>
       </c>
       <c r="K25">
-        <v>0.9791449563316664</v>
+        <v>1.034758965996129</v>
       </c>
       <c r="L25">
-        <v>0.959875449400561</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.9184663585011242</v>
+        <v>1.022357078622936</v>
       </c>
       <c r="N25">
-        <v>0.9634084781041619</v>
+        <v>1.013621047547719</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.012439168470744</v>
+        <v>1.034808581472853</v>
       </c>
       <c r="D2">
-        <v>1.027579349711606</v>
+        <v>1.037965196692606</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.017946205487488</v>
+        <v>1.044784549568577</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050423148117974</v>
+        <v>1.0398784209957</v>
       </c>
       <c r="J2">
-        <v>1.034254086635541</v>
+        <v>1.039925798267606</v>
       </c>
       <c r="K2">
-        <v>1.038667379834698</v>
+        <v>1.040754577511155</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.029161057102994</v>
+        <v>1.047554625497415</v>
       </c>
       <c r="N2">
-        <v>1.015090015606873</v>
+        <v>1.017243946977731</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017262073610309</v>
+        <v>1.035782025253119</v>
       </c>
       <c r="D3">
-        <v>1.031149005745497</v>
+        <v>1.038696607897317</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.023591120872991</v>
+        <v>1.046006071013783</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052275347610975</v>
+        <v>1.040180226626452</v>
       </c>
       <c r="J3">
-        <v>1.037292968455811</v>
+        <v>1.040542407058362</v>
       </c>
       <c r="K3">
-        <v>1.041398257858545</v>
+        <v>1.041296112483841</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.033930791260929</v>
+        <v>1.048586385825185</v>
       </c>
       <c r="N3">
-        <v>1.016116889795464</v>
+        <v>1.017450762914287</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020310347351784</v>
+        <v>1.036411696154983</v>
       </c>
       <c r="D4">
-        <v>1.033407236414686</v>
+        <v>1.039169660032088</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.027161945410423</v>
+        <v>1.046796646435889</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053434616058376</v>
+        <v>1.040374071264215</v>
       </c>
       <c r="J4">
-        <v>1.039208404688095</v>
+        <v>1.040940582141858</v>
       </c>
       <c r="K4">
-        <v>1.043118515324886</v>
+        <v>1.041645635323712</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.036943239976727</v>
+        <v>1.049253610684283</v>
       </c>
       <c r="N4">
-        <v>1.016763966301829</v>
+        <v>1.01758425108268</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021575164337036</v>
+        <v>1.036676359035053</v>
       </c>
       <c r="D5">
-        <v>1.034344686188566</v>
+        <v>1.03936847797328</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.028644350934299</v>
+        <v>1.047129045819882</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053912860217825</v>
+        <v>1.040455217799082</v>
       </c>
       <c r="J5">
-        <v>1.040001883933667</v>
+        <v>1.041107780402928</v>
       </c>
       <c r="K5">
-        <v>1.043830880091466</v>
+        <v>1.04179236225274</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.038192680263311</v>
+        <v>1.049534018615837</v>
       </c>
       <c r="N5">
-        <v>1.01703197524895</v>
+        <v>1.017640289072448</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021786573521815</v>
+        <v>1.036720794121987</v>
       </c>
       <c r="D6">
-        <v>1.034501401942667</v>
+        <v>1.039401857246097</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.02889217557653</v>
+        <v>1.047184859598362</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053992632976981</v>
+        <v>1.040468822381277</v>
       </c>
       <c r="J6">
-        <v>1.04013443417225</v>
+        <v>1.041135842314383</v>
       </c>
       <c r="K6">
-        <v>1.043949864560659</v>
+        <v>1.041816985883133</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.038401489768338</v>
+        <v>1.049581094884836</v>
       </c>
       <c r="N6">
-        <v>1.017076743161467</v>
+        <v>1.017649693377782</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.020327312567622</v>
+        <v>1.036415232792739</v>
       </c>
       <c r="D7">
-        <v>1.033419808903486</v>
+        <v>1.039172316856793</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.027181826089278</v>
+        <v>1.046801087808583</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05344104182748</v>
+        <v>1.040375156906883</v>
       </c>
       <c r="J7">
-        <v>1.039219052905404</v>
+        <v>1.040942817017811</v>
       </c>
       <c r="K7">
-        <v>1.043128076059286</v>
+        <v>1.041647596731301</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.036960000939403</v>
+        <v>1.049257357874906</v>
       </c>
       <c r="N7">
-        <v>1.016767563076374</v>
+        <v>1.017585000181226</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014084513958907</v>
+        <v>1.035137605355532</v>
       </c>
       <c r="D8">
-        <v>1.028796681777886</v>
+        <v>1.038212425720164</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.01987137869847</v>
+        <v>1.045197333951436</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051057403473497</v>
+        <v>1.039980716504306</v>
       </c>
       <c r="J8">
-        <v>1.03529189644749</v>
+        <v>1.040134352148895</v>
       </c>
       <c r="K8">
-        <v>1.039600215541417</v>
+        <v>1.040937775200891</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.03078874241575</v>
+        <v>1.04790339553987</v>
       </c>
       <c r="N8">
-        <v>1.015440737286578</v>
+        <v>1.017313910814651</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002496568906841</v>
+        <v>1.032884633068856</v>
       </c>
       <c r="D9">
-        <v>1.020234153228268</v>
+        <v>1.036519315083748</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.006323462348126</v>
+        <v>1.042372569848454</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046543245031118</v>
+        <v>1.039274608766722</v>
       </c>
       <c r="J9">
-        <v>1.027961473871924</v>
+        <v>1.038703520240852</v>
       </c>
       <c r="K9">
-        <v>1.033007259127608</v>
+        <v>1.039680199718999</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.019314772182933</v>
+        <v>1.045514498663458</v>
       </c>
       <c r="N9">
-        <v>1.01296291626249</v>
+        <v>1.016833650862174</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9943276166004417</v>
+        <v>1.031381547949484</v>
       </c>
       <c r="D10">
-        <v>1.01421451523127</v>
+        <v>1.035389488607237</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9967841799911308</v>
+        <v>1.040490175938246</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043302469943837</v>
+        <v>1.038796442931618</v>
       </c>
       <c r="J10">
-        <v>1.022768110978537</v>
+        <v>1.037745460039334</v>
       </c>
       <c r="K10">
-        <v>1.028331779005083</v>
+        <v>1.038837269885932</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.011211740828561</v>
+        <v>1.043919807981901</v>
       </c>
       <c r="N10">
-        <v>1.011206975268051</v>
+        <v>1.016511757367993</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9906730977363883</v>
+        <v>1.030730430944001</v>
       </c>
       <c r="D11">
-        <v>1.011526330641162</v>
+        <v>1.034900009294138</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9925184660891745</v>
+        <v>1.039675249465099</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041839292288101</v>
+        <v>1.038587630576147</v>
       </c>
       <c r="J11">
-        <v>1.020439101016621</v>
+        <v>1.037329620152978</v>
       </c>
       <c r="K11">
-        <v>1.026234102351124</v>
+        <v>1.038471195493951</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.007582865953164</v>
+        <v>1.043228781519635</v>
       </c>
       <c r="N11">
-        <v>1.010419462882836</v>
+        <v>1.016371966718132</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9892968948452541</v>
+        <v>1.030488535988928</v>
       </c>
       <c r="D12">
-        <v>1.010514826531105</v>
+        <v>1.034718156644959</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9909122997532055</v>
+        <v>1.039372572531634</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041286333707376</v>
+        <v>1.038509803396228</v>
       </c>
       <c r="J12">
-        <v>1.019561239757232</v>
+        <v>1.037175009373295</v>
       </c>
       <c r="K12">
-        <v>1.025443314067632</v>
+        <v>1.038335056935931</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.00621570164397</v>
+        <v>1.042972025075467</v>
       </c>
       <c r="N12">
-        <v>1.01012262946683</v>
+        <v>1.016319980883997</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9895929627604008</v>
+        <v>1.030540425143944</v>
       </c>
       <c r="D13">
-        <v>1.010732397877901</v>
+        <v>1.034757166379961</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9912578330232644</v>
+        <v>1.039437496740619</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041405381686496</v>
+        <v>1.038526509581844</v>
       </c>
       <c r="J13">
-        <v>1.01975013354752</v>
+        <v>1.037208180669036</v>
       </c>
       <c r="K13">
-        <v>1.025613477198209</v>
+        <v>1.038364266459046</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.006509853672889</v>
+        <v>1.043027103771849</v>
       </c>
       <c r="N13">
-        <v>1.010186500520411</v>
+        <v>1.016331134798184</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9905597297695319</v>
+        <v>1.030710436672231</v>
       </c>
       <c r="D14">
-        <v>1.011442988859719</v>
+        <v>1.034884978075341</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9923861508056858</v>
+        <v>1.039650229633223</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041793780587518</v>
+        <v>1.038581202762815</v>
       </c>
       <c r="J14">
-        <v>1.020366801396505</v>
+        <v>1.037316843024404</v>
       </c>
       <c r="K14">
-        <v>1.026168976350462</v>
+        <v>1.038459945547368</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.007470255367114</v>
+        <v>1.043207559558514</v>
       </c>
       <c r="N14">
-        <v>1.010395016007764</v>
+        <v>1.016367670804466</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9911528666745272</v>
+        <v>1.030815180927895</v>
       </c>
       <c r="D15">
-        <v>1.011879062998278</v>
+        <v>1.034963722023295</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9930784269159352</v>
+        <v>1.039781304401821</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042031816473243</v>
+        <v>1.038614865923804</v>
       </c>
       <c r="J15">
-        <v>1.020745037404439</v>
+        <v>1.037383773698</v>
       </c>
       <c r="K15">
-        <v>1.02650967862997</v>
+        <v>1.038518875096282</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.008059404251715</v>
+        <v>1.043318733896588</v>
       </c>
       <c r="N15">
-        <v>1.010522910032305</v>
+        <v>1.016390173713559</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9945675893327153</v>
+        <v>1.031424754695624</v>
       </c>
       <c r="D16">
-        <v>1.014391140399772</v>
+        <v>1.03542196835451</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9970643184614948</v>
+        <v>1.040544263231203</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043398274977315</v>
+        <v>1.03881026396355</v>
       </c>
       <c r="J16">
-        <v>1.022920929957992</v>
+        <v>1.037773037025391</v>
       </c>
       <c r="K16">
-        <v>1.02846940120006</v>
+        <v>1.038861542284075</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.011449946348538</v>
+        <v>1.043965658191194</v>
       </c>
       <c r="N16">
-        <v>1.011258647808871</v>
+        <v>1.016521026206101</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9966773811662951</v>
+        <v>1.031807051346795</v>
       </c>
       <c r="D17">
-        <v>1.01594454769832</v>
+        <v>1.035709345631411</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9995274399715702</v>
+        <v>1.041022889688896</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044239061696253</v>
+        <v>1.038932359850504</v>
       </c>
       <c r="J17">
-        <v>1.024263844236736</v>
+        <v>1.038016945591449</v>
       </c>
       <c r="K17">
-        <v>1.029678669930503</v>
+        <v>1.03907619919804</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.013543759953259</v>
+        <v>1.044371318091743</v>
       </c>
       <c r="N17">
-        <v>1.011712721811401</v>
+        <v>1.01660299713484</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9978967495121243</v>
+        <v>1.032030012369936</v>
       </c>
       <c r="D18">
-        <v>1.016842798832026</v>
+        <v>1.035876943114233</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.000951197722929</v>
+        <v>1.041302080176134</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044723732586725</v>
+        <v>1.039003406176762</v>
       </c>
       <c r="J18">
-        <v>1.025039451275581</v>
+        <v>1.038159117478171</v>
       </c>
       <c r="K18">
-        <v>1.030377001724501</v>
+        <v>1.039201300715613</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.01475353243007</v>
+        <v>1.044607883044136</v>
       </c>
       <c r="N18">
-        <v>1.011974969922349</v>
+        <v>1.016650769960601</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9983106492288436</v>
+        <v>1.032106031893145</v>
       </c>
       <c r="D19">
-        <v>1.01714777309705</v>
+        <v>1.035934085303337</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.001434507744243</v>
+        <v>1.041397279634309</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044888031880926</v>
+        <v>1.039027602280821</v>
       </c>
       <c r="J19">
-        <v>1.025302629012048</v>
+        <v>1.038207578161171</v>
       </c>
       <c r="K19">
-        <v>1.030613943249918</v>
+        <v>1.039243939419328</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.015164114822974</v>
+        <v>1.044688537199013</v>
       </c>
       <c r="N19">
-        <v>1.012063954560244</v>
+        <v>1.016667052570618</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9964521906660457</v>
+        <v>1.031766037240946</v>
       </c>
       <c r="D20">
-        <v>1.015778696242441</v>
+        <v>1.035678515333857</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9992645183588201</v>
+        <v>1.040971535977952</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044149450821037</v>
+        <v>1.038919277715852</v>
       </c>
       <c r="J20">
-        <v>1.024120562795963</v>
+        <v>1.037990786425584</v>
       </c>
       <c r="K20">
-        <v>1.029549656707971</v>
+        <v>1.039053179322995</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.013320312664697</v>
+        <v>1.044327799762055</v>
       </c>
       <c r="N20">
-        <v>1.011664275096469</v>
+        <v>1.016594206508135</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9902755681636877</v>
+        <v>1.030660373652257</v>
       </c>
       <c r="D21">
-        <v>1.011234102329375</v>
+        <v>1.034847341769273</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9920544998498233</v>
+        <v>1.039587584473499</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041679672163482</v>
+        <v>1.038565104299139</v>
       </c>
       <c r="J21">
-        <v>1.020185566390192</v>
+        <v>1.037284848791909</v>
       </c>
       <c r="K21">
-        <v>1.026005721695243</v>
+        <v>1.038431774918451</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.007187982068404</v>
+        <v>1.043154422001429</v>
       </c>
       <c r="N21">
-        <v>1.010333734514266</v>
+        <v>1.016356913554913</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.986282957277313</v>
+        <v>1.029964961051932</v>
       </c>
       <c r="D22">
-        <v>1.008301158891364</v>
+        <v>1.034324528906155</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9873950032154239</v>
+        <v>1.038717571874832</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040071775485896</v>
+        <v>1.03834088833649</v>
       </c>
       <c r="J22">
-        <v>1.017637238694737</v>
+        <v>1.036840133766285</v>
       </c>
       <c r="K22">
-        <v>1.023709942587627</v>
+        <v>1.038040134724564</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.003220372641054</v>
+        <v>1.042416218412947</v>
       </c>
       <c r="N22">
-        <v>1.009472068096992</v>
+        <v>1.016207363046864</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9884102617276863</v>
+        <v>1.030333635110774</v>
       </c>
       <c r="D23">
-        <v>1.009863390411363</v>
+        <v>1.034601702727272</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9898775554534958</v>
+        <v>1.039178769900423</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040929537498884</v>
+        <v>1.038459894793582</v>
       </c>
       <c r="J23">
-        <v>1.018995444464339</v>
+        <v>1.037075967538174</v>
       </c>
       <c r="K23">
-        <v>1.024933606192197</v>
+        <v>1.038247839548741</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.005334712067386</v>
+        <v>1.042807597541963</v>
       </c>
       <c r="N23">
-        <v>1.009931316316517</v>
+        <v>1.016286676241438</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9965539792042521</v>
+        <v>1.031784569830527</v>
       </c>
       <c r="D24">
-        <v>1.015853661504883</v>
+        <v>1.035692446294886</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9993833612025914</v>
+        <v>1.040994740460276</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044189959839799</v>
+        <v>1.038925189495002</v>
       </c>
       <c r="J24">
-        <v>1.024185329230582</v>
+        <v>1.038002606922677</v>
       </c>
       <c r="K24">
-        <v>1.029607973859856</v>
+        <v>1.039063581335605</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.013421314369751</v>
+        <v>1.044347463974923</v>
       </c>
       <c r="N24">
-        <v>1.011686174116449</v>
+        <v>1.016598178735755</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.005566723493636</v>
+        <v>1.033467274328299</v>
       </c>
       <c r="D25">
-        <v>1.022500176606512</v>
+        <v>1.036957218360921</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.00991068960245</v>
+        <v>1.04310269669122</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047749453606124</v>
+        <v>1.039458463972274</v>
       </c>
       <c r="J25">
-        <v>1.029908186602809</v>
+        <v>1.039074160355678</v>
       </c>
       <c r="K25">
-        <v>1.034758965996129</v>
+        <v>1.040006115271765</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.022357078622936</v>
+        <v>1.046132451157413</v>
       </c>
       <c r="N25">
-        <v>1.013621047547719</v>
+        <v>1.016958113124724</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034808581472853</v>
+        <v>1.012439168470743</v>
       </c>
       <c r="D2">
-        <v>1.037965196692606</v>
+        <v>1.027579349711606</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.044784549568577</v>
+        <v>1.017946205487487</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0398784209957</v>
+        <v>1.050423148117974</v>
       </c>
       <c r="J2">
-        <v>1.039925798267606</v>
+        <v>1.03425408663554</v>
       </c>
       <c r="K2">
-        <v>1.040754577511155</v>
+        <v>1.038667379834697</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.047554625497415</v>
+        <v>1.029161057102993</v>
       </c>
       <c r="N2">
-        <v>1.017243946977731</v>
+        <v>1.015090015606873</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035782025253119</v>
+        <v>1.017262073610309</v>
       </c>
       <c r="D3">
-        <v>1.038696607897317</v>
+        <v>1.031149005745497</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.046006071013783</v>
+        <v>1.023591120872991</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040180226626452</v>
+        <v>1.052275347610975</v>
       </c>
       <c r="J3">
-        <v>1.040542407058362</v>
+        <v>1.037292968455811</v>
       </c>
       <c r="K3">
-        <v>1.041296112483841</v>
+        <v>1.041398257858545</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.048586385825185</v>
+        <v>1.033930791260929</v>
       </c>
       <c r="N3">
-        <v>1.017450762914287</v>
+        <v>1.016116889795464</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036411696154983</v>
+        <v>1.020310347351785</v>
       </c>
       <c r="D4">
-        <v>1.039169660032088</v>
+        <v>1.033407236414686</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.046796646435889</v>
+        <v>1.027161945410423</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040374071264215</v>
+        <v>1.053434616058376</v>
       </c>
       <c r="J4">
-        <v>1.040940582141858</v>
+        <v>1.039208404688095</v>
       </c>
       <c r="K4">
-        <v>1.041645635323712</v>
+        <v>1.043118515324886</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.049253610684283</v>
+        <v>1.036943239976728</v>
       </c>
       <c r="N4">
-        <v>1.01758425108268</v>
+        <v>1.016763966301829</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036676359035053</v>
+        <v>1.021575164337035</v>
       </c>
       <c r="D5">
-        <v>1.03936847797328</v>
+        <v>1.034344686188566</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.047129045819882</v>
+        <v>1.028644350934299</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040455217799082</v>
+        <v>1.053912860217824</v>
       </c>
       <c r="J5">
-        <v>1.041107780402928</v>
+        <v>1.040001883933667</v>
       </c>
       <c r="K5">
-        <v>1.04179236225274</v>
+        <v>1.043830880091465</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.049534018615837</v>
+        <v>1.038192680263311</v>
       </c>
       <c r="N5">
-        <v>1.017640289072448</v>
+        <v>1.01703197524895</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036720794121987</v>
+        <v>1.021786573521815</v>
       </c>
       <c r="D6">
-        <v>1.039401857246097</v>
+        <v>1.034501401942667</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.047184859598362</v>
+        <v>1.02889217557653</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040468822381277</v>
+        <v>1.053992632976981</v>
       </c>
       <c r="J6">
-        <v>1.041135842314383</v>
+        <v>1.04013443417225</v>
       </c>
       <c r="K6">
-        <v>1.041816985883133</v>
+        <v>1.043949864560659</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.049581094884836</v>
+        <v>1.038401489768338</v>
       </c>
       <c r="N6">
-        <v>1.017649693377782</v>
+        <v>1.017076743161467</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036415232792739</v>
+        <v>1.020327312567623</v>
       </c>
       <c r="D7">
-        <v>1.039172316856793</v>
+        <v>1.033419808903487</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.046801087808583</v>
+        <v>1.027181826089279</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040375156906883</v>
+        <v>1.053441041827481</v>
       </c>
       <c r="J7">
-        <v>1.040942817017811</v>
+        <v>1.039219052905404</v>
       </c>
       <c r="K7">
-        <v>1.041647596731301</v>
+        <v>1.043128076059286</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.049257357874906</v>
+        <v>1.036960000939404</v>
       </c>
       <c r="N7">
-        <v>1.017585000181226</v>
+        <v>1.016767563076375</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035137605355532</v>
+        <v>1.014084513958907</v>
       </c>
       <c r="D8">
-        <v>1.038212425720164</v>
+        <v>1.028796681777886</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.045197333951436</v>
+        <v>1.01987137869847</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039980716504306</v>
+        <v>1.051057403473497</v>
       </c>
       <c r="J8">
-        <v>1.040134352148895</v>
+        <v>1.03529189644749</v>
       </c>
       <c r="K8">
-        <v>1.040937775200891</v>
+        <v>1.039600215541417</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.04790339553987</v>
+        <v>1.03078874241575</v>
       </c>
       <c r="N8">
-        <v>1.017313910814651</v>
+        <v>1.015440737286578</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032884633068856</v>
+        <v>1.002496568906841</v>
       </c>
       <c r="D9">
-        <v>1.036519315083748</v>
+        <v>1.020234153228268</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.042372569848454</v>
+        <v>1.006323462348126</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039274608766722</v>
+        <v>1.046543245031118</v>
       </c>
       <c r="J9">
-        <v>1.038703520240852</v>
+        <v>1.027961473871924</v>
       </c>
       <c r="K9">
-        <v>1.039680199718999</v>
+        <v>1.033007259127608</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.045514498663458</v>
+        <v>1.019314772182932</v>
       </c>
       <c r="N9">
-        <v>1.016833650862174</v>
+        <v>1.01296291626249</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031381547949484</v>
+        <v>0.9943276166004412</v>
       </c>
       <c r="D10">
-        <v>1.035389488607237</v>
+        <v>1.01421451523127</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.040490175938246</v>
+        <v>0.9967841799911304</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038796442931618</v>
+        <v>1.043302469943837</v>
       </c>
       <c r="J10">
-        <v>1.037745460039334</v>
+        <v>1.022768110978536</v>
       </c>
       <c r="K10">
-        <v>1.038837269885932</v>
+        <v>1.028331779005082</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.043919807981901</v>
+        <v>1.011211740828561</v>
       </c>
       <c r="N10">
-        <v>1.016511757367993</v>
+        <v>1.011206975268051</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030730430944001</v>
+        <v>0.9906730977363865</v>
       </c>
       <c r="D11">
-        <v>1.034900009294138</v>
+        <v>1.01152633064116</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.039675249465099</v>
+        <v>0.9925184660891729</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038587630576147</v>
+        <v>1.0418392922881</v>
       </c>
       <c r="J11">
-        <v>1.037329620152978</v>
+        <v>1.02043910101662</v>
       </c>
       <c r="K11">
-        <v>1.038471195493951</v>
+        <v>1.026234102351122</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.043228781519635</v>
+        <v>1.007582865953163</v>
       </c>
       <c r="N11">
-        <v>1.016371966718132</v>
+        <v>1.010419462882836</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030488535988928</v>
+        <v>0.9892968948452545</v>
       </c>
       <c r="D12">
-        <v>1.034718156644959</v>
+        <v>1.010514826531107</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.039372572531634</v>
+        <v>0.9909122997532058</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038509803396228</v>
+        <v>1.041286333707377</v>
       </c>
       <c r="J12">
-        <v>1.037175009373295</v>
+        <v>1.019561239757232</v>
       </c>
       <c r="K12">
-        <v>1.038335056935931</v>
+        <v>1.025443314067633</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.042972025075467</v>
+        <v>1.006215701643971</v>
       </c>
       <c r="N12">
-        <v>1.016319980883997</v>
+        <v>1.01012262946683</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030540425143944</v>
+        <v>0.9895929627604005</v>
       </c>
       <c r="D13">
-        <v>1.034757166379961</v>
+        <v>1.0107323978779</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.039437496740619</v>
+        <v>0.9912578330232649</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038526509581844</v>
+        <v>1.041405381686496</v>
       </c>
       <c r="J13">
-        <v>1.037208180669036</v>
+        <v>1.01975013354752</v>
       </c>
       <c r="K13">
-        <v>1.038364266459046</v>
+        <v>1.025613477198209</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.043027103771849</v>
+        <v>1.00650985367289</v>
       </c>
       <c r="N13">
-        <v>1.016331134798184</v>
+        <v>1.010186500520411</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030710436672231</v>
+        <v>0.9905597297695329</v>
       </c>
       <c r="D14">
-        <v>1.034884978075341</v>
+        <v>1.011442988859721</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.039650229633223</v>
+        <v>0.9923861508056873</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038581202762815</v>
+        <v>1.041793780587518</v>
       </c>
       <c r="J14">
-        <v>1.037316843024404</v>
+        <v>1.020366801396506</v>
       </c>
       <c r="K14">
-        <v>1.038459945547368</v>
+        <v>1.026168976350464</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.043207559558514</v>
+        <v>1.007470255367116</v>
       </c>
       <c r="N14">
-        <v>1.016367670804466</v>
+        <v>1.010395016007765</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030815180927895</v>
+        <v>0.9911528666745255</v>
       </c>
       <c r="D15">
-        <v>1.034963722023295</v>
+        <v>1.011879062998277</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.039781304401821</v>
+        <v>0.9930784269159335</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038614865923804</v>
+        <v>1.042031816473241</v>
       </c>
       <c r="J15">
-        <v>1.037383773698</v>
+        <v>1.020745037404438</v>
       </c>
       <c r="K15">
-        <v>1.038518875096282</v>
+        <v>1.026509678629968</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.043318733896588</v>
+        <v>1.008059404251714</v>
       </c>
       <c r="N15">
-        <v>1.016390173713559</v>
+        <v>1.010522910032304</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031424754695624</v>
+        <v>0.9945675893327148</v>
       </c>
       <c r="D16">
-        <v>1.03542196835451</v>
+        <v>1.014391140399771</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.040544263231203</v>
+        <v>0.9970643184614949</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03881026396355</v>
+        <v>1.043398274977315</v>
       </c>
       <c r="J16">
-        <v>1.037773037025391</v>
+        <v>1.022920929957991</v>
       </c>
       <c r="K16">
-        <v>1.038861542284075</v>
+        <v>1.028469401200059</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.043965658191194</v>
+        <v>1.011449946348538</v>
       </c>
       <c r="N16">
-        <v>1.016521026206101</v>
+        <v>1.011258647808871</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031807051346795</v>
+        <v>0.9966773811662952</v>
       </c>
       <c r="D17">
-        <v>1.035709345631411</v>
+        <v>1.01594454769832</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.041022889688896</v>
+        <v>0.9995274399715705</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038932359850504</v>
+        <v>1.044239061696253</v>
       </c>
       <c r="J17">
-        <v>1.038016945591449</v>
+        <v>1.024263844236736</v>
       </c>
       <c r="K17">
-        <v>1.03907619919804</v>
+        <v>1.029678669930503</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.044371318091743</v>
+        <v>1.013543759953259</v>
       </c>
       <c r="N17">
-        <v>1.01660299713484</v>
+        <v>1.011712721811401</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032030012369936</v>
+        <v>0.9978967495121234</v>
       </c>
       <c r="D18">
-        <v>1.035876943114233</v>
+        <v>1.016842798832025</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.041302080176134</v>
+        <v>1.000951197722928</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039003406176762</v>
+        <v>1.044723732586724</v>
       </c>
       <c r="J18">
-        <v>1.038159117478171</v>
+        <v>1.02503945127558</v>
       </c>
       <c r="K18">
-        <v>1.039201300715613</v>
+        <v>1.0303770017245</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.044607883044136</v>
+        <v>1.014753532430069</v>
       </c>
       <c r="N18">
-        <v>1.016650769960601</v>
+        <v>1.011974969922348</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032106031893145</v>
+        <v>0.9983106492288431</v>
       </c>
       <c r="D19">
-        <v>1.035934085303337</v>
+        <v>1.017147773097049</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.041397279634309</v>
+        <v>1.001434507744242</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039027602280821</v>
+        <v>1.044888031880926</v>
       </c>
       <c r="J19">
-        <v>1.038207578161171</v>
+        <v>1.025302629012048</v>
       </c>
       <c r="K19">
-        <v>1.039243939419328</v>
+        <v>1.030613943249917</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.044688537199013</v>
+        <v>1.015164114822973</v>
       </c>
       <c r="N19">
-        <v>1.016667052570618</v>
+        <v>1.012063954560244</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031766037240946</v>
+        <v>0.9964521906660457</v>
       </c>
       <c r="D20">
-        <v>1.035678515333857</v>
+        <v>1.015778696242442</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.040971535977952</v>
+        <v>0.9992645183588206</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038919277715852</v>
+        <v>1.044149450821038</v>
       </c>
       <c r="J20">
-        <v>1.037990786425584</v>
+        <v>1.024120562795963</v>
       </c>
       <c r="K20">
-        <v>1.039053179322995</v>
+        <v>1.029549656707971</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.044327799762055</v>
+        <v>1.013320312664698</v>
       </c>
       <c r="N20">
-        <v>1.016594206508135</v>
+        <v>1.011664275096469</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030660373652257</v>
+        <v>0.9902755681636873</v>
       </c>
       <c r="D21">
-        <v>1.034847341769273</v>
+        <v>1.011234102329375</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.039587584473499</v>
+        <v>0.9920544998498234</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038565104299139</v>
+        <v>1.041679672163482</v>
       </c>
       <c r="J21">
-        <v>1.037284848791909</v>
+        <v>1.020185566390192</v>
       </c>
       <c r="K21">
-        <v>1.038431774918451</v>
+        <v>1.026005721695243</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.043154422001429</v>
+        <v>1.007187982068405</v>
       </c>
       <c r="N21">
-        <v>1.016356913554913</v>
+        <v>1.010333734514266</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029964961051932</v>
+        <v>0.9862829572773121</v>
       </c>
       <c r="D22">
-        <v>1.034324528906155</v>
+        <v>1.008301158891363</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.038717571874832</v>
+        <v>0.9873950032154228</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03834088833649</v>
+        <v>1.040071775485895</v>
       </c>
       <c r="J22">
-        <v>1.036840133766285</v>
+        <v>1.017637238694736</v>
       </c>
       <c r="K22">
-        <v>1.038040134724564</v>
+        <v>1.023709942587626</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.042416218412947</v>
+        <v>1.003220372641053</v>
       </c>
       <c r="N22">
-        <v>1.016207363046864</v>
+        <v>1.009472068096992</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030333635110774</v>
+        <v>0.9884102617276869</v>
       </c>
       <c r="D23">
-        <v>1.034601702727272</v>
+        <v>1.009863390411363</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.039178769900423</v>
+        <v>0.989877555453496</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038459894793582</v>
+        <v>1.040929537498884</v>
       </c>
       <c r="J23">
-        <v>1.037075967538174</v>
+        <v>1.01899544446434</v>
       </c>
       <c r="K23">
-        <v>1.038247839548741</v>
+        <v>1.024933606192197</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.042807597541963</v>
+        <v>1.005334712067387</v>
       </c>
       <c r="N23">
-        <v>1.016286676241438</v>
+        <v>1.009931316316517</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031784569830527</v>
+        <v>0.9965539792042524</v>
       </c>
       <c r="D24">
-        <v>1.035692446294886</v>
+        <v>1.015853661504884</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.040994740460276</v>
+        <v>0.9993833612025916</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038925189495002</v>
+        <v>1.044189959839799</v>
       </c>
       <c r="J24">
-        <v>1.038002606922677</v>
+        <v>1.024185329230582</v>
       </c>
       <c r="K24">
-        <v>1.039063581335605</v>
+        <v>1.029607973859856</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.044347463974923</v>
+        <v>1.013421314369751</v>
       </c>
       <c r="N24">
-        <v>1.016598178735755</v>
+        <v>1.011686174116449</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033467274328299</v>
+        <v>1.005566723493635</v>
       </c>
       <c r="D25">
-        <v>1.036957218360921</v>
+        <v>1.022500176606511</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.04310269669122</v>
+        <v>1.00991068960245</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039458463972274</v>
+        <v>1.047749453606124</v>
       </c>
       <c r="J25">
-        <v>1.039074160355678</v>
+        <v>1.029908186602808</v>
       </c>
       <c r="K25">
-        <v>1.040006115271765</v>
+        <v>1.034758965996128</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.046132451157413</v>
+        <v>1.022357078622935</v>
       </c>
       <c r="N25">
-        <v>1.016958113124724</v>
+        <v>1.013621047547718</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012439168470743</v>
+        <v>0.9934421935164078</v>
       </c>
       <c r="D2">
-        <v>1.027579349711606</v>
+        <v>1.015106545762136</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.017946205487487</v>
+        <v>1.01378140775325</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050423148117974</v>
+        <v>1.040891815733768</v>
       </c>
       <c r="J2">
-        <v>1.03425408663554</v>
+        <v>1.015820832393793</v>
       </c>
       <c r="K2">
-        <v>1.038667379834697</v>
+        <v>1.026359358925332</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.029161057102993</v>
+        <v>1.025052027290263</v>
       </c>
       <c r="N2">
-        <v>1.015090015606873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008830203350542</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.028399286144927</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.029708454695633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017262073610309</v>
+        <v>0.9979898822138394</v>
       </c>
       <c r="D3">
-        <v>1.031149005745497</v>
+        <v>1.018036337716625</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.023591120872991</v>
+        <v>1.017160597077602</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052275347610975</v>
+        <v>1.041672573884093</v>
       </c>
       <c r="J3">
-        <v>1.037292968455811</v>
+        <v>1.018535495467278</v>
       </c>
       <c r="K3">
-        <v>1.041398257858545</v>
+        <v>1.028443526483959</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.033930791260929</v>
+        <v>1.027578514162239</v>
       </c>
       <c r="N3">
-        <v>1.016116889795464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.00978490128675</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.030398862539165</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.031179483628398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020310347351785</v>
+        <v>1.00086728269445</v>
       </c>
       <c r="D4">
-        <v>1.033407236414686</v>
+        <v>1.019892948803662</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.027161945410423</v>
+        <v>1.019308774982891</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053434616058376</v>
+        <v>1.042155248577785</v>
       </c>
       <c r="J4">
-        <v>1.039208404688095</v>
+        <v>1.020248829280687</v>
       </c>
       <c r="K4">
-        <v>1.043118515324886</v>
+        <v>1.029757068607819</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.036943239976728</v>
+        <v>1.029179614368484</v>
       </c>
       <c r="N4">
-        <v>1.016763966301829</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.010387047980689</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.031666042937871</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.032109198724873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021575164337035</v>
+        <v>1.002067078841651</v>
       </c>
       <c r="D5">
-        <v>1.034344686188566</v>
+        <v>1.020670201821272</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.028644350934299</v>
+        <v>1.020205239971707</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053912860217824</v>
+        <v>1.0423556475058</v>
       </c>
       <c r="J5">
-        <v>1.040001883933667</v>
+        <v>1.020964153874109</v>
       </c>
       <c r="K5">
-        <v>1.043830880091465</v>
+        <v>1.030306884853343</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.038192680263311</v>
+        <v>1.029847127245401</v>
       </c>
       <c r="N5">
-        <v>1.01703197524895</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010639082581831</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.032194341005077</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.032505217724341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021786573521815</v>
+        <v>1.002274001511812</v>
       </c>
       <c r="D6">
-        <v>1.034501401942667</v>
+        <v>1.020807280560514</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.02889217557653</v>
+        <v>1.020357987552345</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053992632976981</v>
+        <v>1.042392370305699</v>
       </c>
       <c r="J6">
-        <v>1.04013443417225</v>
+        <v>1.021089864609845</v>
       </c>
       <c r="K6">
-        <v>1.043949864560659</v>
+        <v>1.030405750683608</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.038401489768338</v>
+        <v>1.029961463222813</v>
       </c>
       <c r="N6">
-        <v>1.017076743161467</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.010684267092704</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.032284831318036</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.03258395851654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020327312567623</v>
+        <v>1.00090049295941</v>
       </c>
       <c r="D7">
-        <v>1.033419808903487</v>
+        <v>1.019922498253391</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.027181826089279</v>
+        <v>1.019328188210652</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053441041827481</v>
+        <v>1.042167075530444</v>
       </c>
       <c r="J7">
-        <v>1.039219052905404</v>
+        <v>1.0202751097843</v>
       </c>
       <c r="K7">
-        <v>1.043128076059286</v>
+        <v>1.029783355614602</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.036960000939404</v>
+        <v>1.029195879056331</v>
       </c>
       <c r="N7">
-        <v>1.016767563076375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010398765306469</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.031678915508006</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.03214810643194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014084513958907</v>
+        <v>0.9950146700228106</v>
       </c>
       <c r="D8">
-        <v>1.028796681777886</v>
+        <v>1.016129016048716</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.01987137869847</v>
+        <v>1.014940959935019</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051057403473497</v>
+        <v>1.041171943929034</v>
       </c>
       <c r="J8">
-        <v>1.03529189644749</v>
+        <v>1.016768481134198</v>
       </c>
       <c r="K8">
-        <v>1.039600215541417</v>
+        <v>1.027094853361791</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.03078874241575</v>
+        <v>1.025922279378558</v>
       </c>
       <c r="N8">
-        <v>1.015440737286578</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009166822420293</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.029088043803155</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.030251696837667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002496568906841</v>
+        <v>0.9840887957678026</v>
       </c>
       <c r="D9">
-        <v>1.020234153228268</v>
+        <v>1.009100279167989</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.006323462348126</v>
+        <v>1.006889238031854</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046543245031118</v>
+        <v>1.039226257708502</v>
       </c>
       <c r="J9">
-        <v>1.027961473871924</v>
+        <v>1.01021620780504</v>
       </c>
       <c r="K9">
-        <v>1.033007259127608</v>
+        <v>1.022047416182406</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.019314772182932</v>
+        <v>1.019871522337291</v>
       </c>
       <c r="N9">
-        <v>1.01296291626249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.006857674638395</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.024299181184827</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.026679510977371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9943276166004412</v>
+        <v>0.9766054554697265</v>
       </c>
       <c r="D10">
-        <v>1.01421451523127</v>
+        <v>1.004326534294167</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9967841799911304</v>
+        <v>1.001661144074146</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043302469943837</v>
+        <v>1.037866975187473</v>
       </c>
       <c r="J10">
-        <v>1.022768110978536</v>
+        <v>1.005779025667308</v>
       </c>
       <c r="K10">
-        <v>1.028331779005082</v>
+        <v>1.01861810876517</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.011211740828561</v>
+        <v>1.01600047068435</v>
       </c>
       <c r="N10">
-        <v>1.011206975268051</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.005306294638961</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.021287959674203</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.02427175620626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9906730977363865</v>
+        <v>0.9748034122295454</v>
       </c>
       <c r="D11">
-        <v>1.01152633064116</v>
+        <v>1.00332696908523</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9925184660891729</v>
+        <v>1.002233749414035</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0418392922881</v>
+        <v>1.037753328102046</v>
       </c>
       <c r="J11">
-        <v>1.02043910101662</v>
+        <v>1.005263309629424</v>
       </c>
       <c r="K11">
-        <v>1.026234102351122</v>
+        <v>1.018186415198915</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.007582865953163</v>
+        <v>1.017113663081236</v>
       </c>
       <c r="N11">
-        <v>1.010419462882836</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.005241619126893</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.022613289799705</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.023999862301374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9892968948452545</v>
+        <v>0.9746582565729623</v>
       </c>
       <c r="D12">
-        <v>1.010514826531107</v>
+        <v>1.003342809949934</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9909122997532058</v>
+        <v>1.003414845266331</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041286333707377</v>
+        <v>1.037885045879456</v>
       </c>
       <c r="J12">
-        <v>1.019561239757232</v>
+        <v>1.005575242061082</v>
       </c>
       <c r="K12">
-        <v>1.025443314067633</v>
+        <v>1.018406246000983</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.006215701643971</v>
+        <v>1.018476913361384</v>
       </c>
       <c r="N12">
-        <v>1.01012262946683</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.005442059093578</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.02402307017513</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.024155294122369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9895929627604005</v>
+        <v>0.975791927260487</v>
       </c>
       <c r="D13">
-        <v>1.0107323978779</v>
+        <v>1.004157446645596</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>0.9912578330232649</v>
+        <v>1.005169881727036</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041405381686496</v>
+        <v>1.038227300867737</v>
       </c>
       <c r="J13">
-        <v>1.01975013354752</v>
+        <v>1.006560850417842</v>
       </c>
       <c r="K13">
-        <v>1.025613477198209</v>
+        <v>1.019161659837197</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.00650985367289</v>
+        <v>1.020154997235525</v>
       </c>
       <c r="N13">
-        <v>1.010186500520411</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.005868499762363</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.025630101410101</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.024686882821116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,81 +1069,105 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9905597297695329</v>
+        <v>0.9771460026895781</v>
       </c>
       <c r="D14">
-        <v>1.011442988859721</v>
+        <v>1.0050784965075</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.9923861508056873</v>
+        <v>1.006626908053191</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041793780587518</v>
+        <v>1.038557336582541</v>
       </c>
       <c r="J14">
-        <v>1.020366801396506</v>
+        <v>1.007538503665343</v>
       </c>
       <c r="K14">
-        <v>1.026168976350464</v>
+        <v>1.019922115190556</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.007470255367116</v>
+        <v>1.021441729778157</v>
       </c>
       <c r="N14">
-        <v>1.010395016007765</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.00626319131926</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.026822353152331</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.025226008467687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>0.9911528666745255</v>
+        <v>0.9777752108127409</v>
       </c>
       <c r="D15">
-        <v>1.011879062998277</v>
+        <v>1.005493486925271</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9930784269159335</v>
+        <v>1.007160398908942</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042031816473241</v>
+        <v>1.038691192579094</v>
       </c>
       <c r="J15">
-        <v>1.020745037404438</v>
+        <v>1.00794582791758</v>
       </c>
       <c r="K15">
-        <v>1.026509678629968</v>
+        <v>1.020241186417448</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782941</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.008059404251714</v>
+        <v>1.021877347862365</v>
       </c>
       <c r="N15">
-        <v>1.010522910032304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.006417354132654</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.027204540217165</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.025457558204629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9945675893327148</v>
+        <v>0.9806972155430268</v>
       </c>
       <c r="D16">
-        <v>1.014391140399771</v>
+        <v>1.007337230896174</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9970643184614949</v>
+        <v>1.009066125272861</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043398274977315</v>
+        <v>1.039206458957324</v>
       </c>
       <c r="J16">
-        <v>1.022920929957991</v>
+        <v>1.009618867020914</v>
       </c>
       <c r="K16">
-        <v>1.028469401200059</v>
+        <v>1.021538968816026</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175717</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.011449946348538</v>
+        <v>1.023237392276067</v>
       </c>
       <c r="N16">
-        <v>1.011258647808871</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.006985983392854</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.028240435234609</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.026378365106713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9966773811662952</v>
+        <v>0.9822436843083509</v>
       </c>
       <c r="D17">
-        <v>1.01594454769832</v>
+        <v>1.00827990198197</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9995274399715705</v>
+        <v>1.009773615303302</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044239061696253</v>
+        <v>1.039430375713106</v>
       </c>
       <c r="J17">
-        <v>1.024263844236736</v>
+        <v>1.010401737527904</v>
       </c>
       <c r="K17">
-        <v>1.029678669930503</v>
+        <v>1.022144295488973</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068056</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.013543759953259</v>
+        <v>1.023612420635685</v>
       </c>
       <c r="N17">
-        <v>1.011712721811401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.007219572926648</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.028406570492236</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.026808984716395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9978967495121234</v>
+        <v>0.9826798079070393</v>
       </c>
       <c r="D18">
-        <v>1.016842798832025</v>
+        <v>1.00847856263929</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.000951197722928</v>
+        <v>1.009331138649691</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044723732586724</v>
+        <v>1.039400588913291</v>
       </c>
       <c r="J18">
-        <v>1.02503945127558</v>
+        <v>1.010413506871892</v>
       </c>
       <c r="K18">
-        <v>1.0303770017245</v>
+        <v>1.022152532511012</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.014753532430069</v>
+        <v>1.022990725162906</v>
       </c>
       <c r="N18">
-        <v>1.011974969922348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.007155353058139</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.027674679938375</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.026803023936021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9983106492288431</v>
+        <v>0.9820915349171921</v>
       </c>
       <c r="D19">
-        <v>1.017147773097049</v>
+        <v>1.008007179947382</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.001434507744242</v>
+        <v>1.007741677610467</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044888031880926</v>
+        <v>1.039146848263341</v>
       </c>
       <c r="J19">
-        <v>1.025302629012048</v>
+        <v>1.009709905830742</v>
       </c>
       <c r="K19">
-        <v>1.030613943249917</v>
+        <v>1.021625305971387</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.015164114822973</v>
+        <v>1.021364270550638</v>
       </c>
       <c r="N19">
-        <v>1.012063954560244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.006824389039487</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.026058513451252</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.026436729519101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9964521906660457</v>
+        <v>0.9786033696718781</v>
       </c>
       <c r="D20">
-        <v>1.015778696242442</v>
+        <v>1.005620655278658</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9992645183588206</v>
+        <v>1.003050788808057</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044149450821038</v>
+        <v>1.038250935267112</v>
       </c>
       <c r="J20">
-        <v>1.024120562795963</v>
+        <v>1.006984762304508</v>
       </c>
       <c r="K20">
-        <v>1.029549656707971</v>
+        <v>1.019565387036861</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.013320312664698</v>
+        <v>1.017040205059711</v>
       </c>
       <c r="N20">
-        <v>1.011664275096469</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.005736204503696</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.022100045664707</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.024984240555046</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,81 +1440,105 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9902755681636873</v>
+        <v>0.9726557001651246</v>
       </c>
       <c r="D21">
-        <v>1.011234102329375</v>
+        <v>1.001805854361881</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9920544998498234</v>
+        <v>0.9985584662894255</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041679672163482</v>
+        <v>1.037107154940226</v>
       </c>
       <c r="J21">
-        <v>1.020185566390192</v>
+        <v>1.003342895068003</v>
       </c>
       <c r="K21">
-        <v>1.026005721695243</v>
+        <v>1.016753094855749</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.007187982068405</v>
+        <v>1.013567200530832</v>
       </c>
       <c r="N21">
-        <v>1.010333734514266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.004440691568278</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.019309599177394</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.022999078358209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>0.9862829572773121</v>
+        <v>0.9688935142859504</v>
       </c>
       <c r="D22">
-        <v>1.008301158891363</v>
+        <v>0.9993987295900246</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9873950032154228</v>
+        <v>0.9958509901417416</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040071775485895</v>
+        <v>1.03637920350864</v>
       </c>
       <c r="J22">
-        <v>1.017637238694736</v>
+        <v>1.00106242829171</v>
       </c>
       <c r="K22">
-        <v>1.023709942587626</v>
+        <v>1.014982107182334</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.003220372641053</v>
+        <v>1.011505090252817</v>
       </c>
       <c r="N22">
-        <v>1.009472068096992</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.003632234304512</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.017677525252363</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.021733154961469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9884102617276869</v>
+        <v>0.9708800884210902</v>
       </c>
       <c r="D23">
-        <v>1.009863390411363</v>
+        <v>1.000661682271661</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.989877555453496</v>
+        <v>0.9972841717648595</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040929537498884</v>
+        <v>1.036758885688806</v>
       </c>
       <c r="J23">
-        <v>1.01899544446434</v>
+        <v>1.002260861937758</v>
       </c>
       <c r="K23">
-        <v>1.024933606192197</v>
+        <v>1.015907534630636</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.005334712067387</v>
+        <v>1.012595558502259</v>
       </c>
       <c r="N23">
-        <v>1.009931316316517</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.004054243099614</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.018540585702961</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.022377695613755</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9965539792042524</v>
+        <v>0.9785259355741576</v>
       </c>
       <c r="D24">
-        <v>1.015853661504884</v>
+        <v>1.005546956702206</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>0.9993833612025916</v>
+        <v>1.002821663253333</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044189959839799</v>
+        <v>1.03820722012309</v>
       </c>
       <c r="J24">
-        <v>1.024185329230582</v>
+        <v>1.006876427749475</v>
       </c>
       <c r="K24">
-        <v>1.029607973859856</v>
+        <v>1.019477356805715</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.013421314369751</v>
+        <v>1.016799407858528</v>
       </c>
       <c r="N24">
-        <v>1.011686174116449</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.005683777948748</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.021867747882608</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.024894185850264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005566723493635</v>
+        <v>0.9870080752020239</v>
       </c>
       <c r="D25">
-        <v>1.022500176606511</v>
+        <v>1.010987536782583</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.00991068960245</v>
+        <v>1.00902188514088</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047749453606124</v>
+        <v>1.039765988947892</v>
       </c>
       <c r="J25">
-        <v>1.029908186602808</v>
+        <v>1.011980721955859</v>
       </c>
       <c r="K25">
-        <v>1.034758965996128</v>
+        <v>1.023417646675817</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.022357078622935</v>
+        <v>1.021481743927759</v>
       </c>
       <c r="N25">
-        <v>1.013621047547718</v>
+        <v>1.007484266577935</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.025573591929526</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.02767734223281</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9934421935164078</v>
+        <v>0.994534392818154</v>
       </c>
       <c r="D2">
-        <v>1.015106545762136</v>
+        <v>1.015830618561577</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.01378140775325</v>
+        <v>1.014254552759845</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.040891815733768</v>
+        <v>1.041220929247033</v>
       </c>
       <c r="J2">
-        <v>1.015820832393793</v>
+        <v>1.016879817312613</v>
       </c>
       <c r="K2">
-        <v>1.026359358925332</v>
+        <v>1.027073726746084</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.025052027290263</v>
+        <v>1.025518807758643</v>
       </c>
       <c r="N2">
-        <v>1.008830203350542</v>
+        <v>1.011437979289606</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028399286144927</v>
+        <v>1.02876871783143</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.029708454695633</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.030222462209676</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019271803726008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9979898822138394</v>
+        <v>0.9987763536155521</v>
       </c>
       <c r="D3">
-        <v>1.018036337716625</v>
+        <v>1.018451428622633</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.017160597077602</v>
+        <v>1.017500842141334</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.041672573884093</v>
+        <v>1.041869599655388</v>
       </c>
       <c r="J3">
-        <v>1.018535495467278</v>
+        <v>1.01930043214016</v>
       </c>
       <c r="K3">
-        <v>1.028443526483959</v>
+        <v>1.028853540305378</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.027578514162239</v>
+        <v>1.027914588303726</v>
       </c>
       <c r="N3">
-        <v>1.00978490128675</v>
+        <v>1.01211182810154</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.030398862539165</v>
+        <v>1.030664846435297</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.031179483628398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.031477998659932</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019651793409049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00086728269445</v>
+        <v>1.001463521261293</v>
       </c>
       <c r="D4">
-        <v>1.019892948803662</v>
+        <v>1.020114658596226</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.019308774982891</v>
+        <v>1.019566499704649</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.042155248577785</v>
+        <v>1.042269531701487</v>
       </c>
       <c r="J4">
-        <v>1.020248829280687</v>
+        <v>1.020829863961282</v>
       </c>
       <c r="K4">
-        <v>1.029757068607819</v>
+        <v>1.029976230624581</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.029179614368484</v>
+        <v>1.029434373385708</v>
       </c>
       <c r="N4">
-        <v>1.010387047980689</v>
+        <v>1.012537453439212</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.031666042937871</v>
+        <v>1.031867670101227</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.032109198724873</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.032272839628938</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019888786709246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002067078841651</v>
+        <v>1.002584529584693</v>
       </c>
       <c r="D5">
-        <v>1.020670201821272</v>
+        <v>1.020811645035818</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.020205239971707</v>
+        <v>1.020428828448904</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.0423556475058</v>
+        <v>1.042435528444119</v>
       </c>
       <c r="J5">
-        <v>1.020964153874109</v>
+        <v>1.021468810039351</v>
       </c>
       <c r="K5">
-        <v>1.030306884853343</v>
+        <v>1.030446746074832</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.029847127245401</v>
+        <v>1.030068212404773</v>
       </c>
       <c r="N5">
-        <v>1.010639082581831</v>
+        <v>1.012715771307688</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.032194341005077</v>
+        <v>1.032369317110644</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.032505217724341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.032613492266348</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.01998804794551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002274001511812</v>
+        <v>1.002777666849722</v>
       </c>
       <c r="D6">
-        <v>1.020807280560514</v>
+        <v>1.020934758457522</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.020357987552345</v>
+        <v>1.020575606345392</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.042392370305699</v>
+        <v>1.042466212646575</v>
       </c>
       <c r="J6">
-        <v>1.021089864609845</v>
+        <v>1.021581141323278</v>
       </c>
       <c r="K6">
-        <v>1.030405750683608</v>
+        <v>1.030531809343854</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.029961463222813</v>
+        <v>1.030176656860339</v>
       </c>
       <c r="N6">
-        <v>1.010684267092704</v>
+        <v>1.012747777409194</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.032284831318036</v>
+        <v>1.032455144603644</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03258395851654</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.032683339338644</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020006679511326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00090049295941</v>
+        <v>1.001506903071253</v>
       </c>
       <c r="D7">
-        <v>1.019922498253391</v>
+        <v>1.020151011900167</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.019328188210652</v>
+        <v>1.019590308314634</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.042167075530444</v>
+        <v>1.04228447063383</v>
       </c>
       <c r="J7">
-        <v>1.0202751097843</v>
+        <v>1.020866063897396</v>
       </c>
       <c r="K7">
-        <v>1.029783355614602</v>
+        <v>1.030009244386486</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.029195879056331</v>
+        <v>1.029454984043438</v>
       </c>
       <c r="N7">
-        <v>1.010398765306469</v>
+        <v>1.012576059441073</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.031678915508006</v>
+        <v>1.031883982253196</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.03214810643194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.032318496167566</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019898691563033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9950146700228106</v>
+        <v>0.9960400918133229</v>
       </c>
       <c r="D8">
-        <v>1.016129016048716</v>
+        <v>1.016774882978249</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.014940959935019</v>
+        <v>1.01538497404393</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.041171943929034</v>
+        <v>1.041468581381963</v>
       </c>
       <c r="J8">
-        <v>1.016768481134198</v>
+        <v>1.017763789512947</v>
       </c>
       <c r="K8">
-        <v>1.027094853361791</v>
+        <v>1.027732322694462</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.025922279378558</v>
+        <v>1.026360502016018</v>
       </c>
       <c r="N8">
-        <v>1.009166822420293</v>
+        <v>1.011767934834072</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.029088043803155</v>
+        <v>1.029434873159187</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.030251696837667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.030713582672893</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019418478809144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9840887957678026</v>
+        <v>0.9858769675922004</v>
       </c>
       <c r="D9">
-        <v>1.009100279167989</v>
+        <v>1.010507602632303</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.006889238031854</v>
+        <v>1.007665979937753</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.039226257708502</v>
+        <v>1.039848322543434</v>
       </c>
       <c r="J9">
-        <v>1.01021620780504</v>
+        <v>1.011938496848014</v>
       </c>
       <c r="K9">
-        <v>1.022047416182406</v>
+        <v>1.023432471020854</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.019871522337291</v>
+        <v>1.020635894430617</v>
       </c>
       <c r="N9">
-        <v>1.006857674638395</v>
+        <v>1.010153981021297</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.024299181184827</v>
+        <v>1.024904144187121</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.026679510977371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.027669749658354</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018483661230715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9766054554697265</v>
+        <v>0.9789889343291356</v>
       </c>
       <c r="D10">
-        <v>1.004326534294167</v>
+        <v>1.006305581880559</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.001661144074146</v>
+        <v>1.002697616417902</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.037866975187473</v>
+        <v>1.038733588739033</v>
       </c>
       <c r="J10">
-        <v>1.005779025667308</v>
+        <v>1.008061710736112</v>
       </c>
       <c r="K10">
-        <v>1.01861810876517</v>
+        <v>1.020561912818646</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.01600047068435</v>
+        <v>1.017018334788633</v>
       </c>
       <c r="N10">
-        <v>1.005306294638961</v>
+        <v>1.009204864339566</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.021287959674203</v>
+        <v>1.022093500301508</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.02427175620626</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.025658760494824</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017859825454638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9748034122295454</v>
+        <v>0.9773586938764552</v>
       </c>
       <c r="D11">
-        <v>1.00332696908523</v>
+        <v>1.005451587393908</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.002233749414035</v>
+        <v>1.003336332365841</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.037753328102046</v>
+        <v>1.038676135181114</v>
       </c>
       <c r="J11">
-        <v>1.005263309629424</v>
+        <v>1.007704683162682</v>
       </c>
       <c r="K11">
-        <v>1.018186415198915</v>
+        <v>1.020271421891022</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.017113663081236</v>
+        <v>1.018195603429111</v>
       </c>
       <c r="N11">
-        <v>1.005241619126893</v>
+        <v>1.009423016759856</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.022613289799705</v>
+        <v>1.023469092679971</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.023999862301374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.025489885327765</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017874252800563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9746582565729623</v>
+        <v>0.9772140880737488</v>
       </c>
       <c r="D12">
-        <v>1.003342809949934</v>
+        <v>1.005459341806768</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.003414845266331</v>
+        <v>1.004511390121309</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.037885045879456</v>
+        <v>1.038798356096284</v>
       </c>
       <c r="J12">
-        <v>1.005575242061082</v>
+        <v>1.008015104970804</v>
       </c>
       <c r="K12">
-        <v>1.018406246000983</v>
+        <v>1.020482691562888</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.018476913361384</v>
+        <v>1.019552666413849</v>
       </c>
       <c r="N12">
-        <v>1.005442059093578</v>
+        <v>1.009675230268724</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.02402307017513</v>
+        <v>1.024873681990971</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.024155294122369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.025639260199231</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.017974509854117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.975791927260487</v>
+        <v>0.978195929913129</v>
       </c>
       <c r="D13">
-        <v>1.004157446645596</v>
+        <v>1.006131821048068</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.005169881727036</v>
+        <v>1.006196601580855</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.038227300867737</v>
+        <v>1.03907329431818</v>
       </c>
       <c r="J13">
-        <v>1.006560850417842</v>
+        <v>1.008856512233198</v>
       </c>
       <c r="K13">
-        <v>1.019161659837197</v>
+        <v>1.021098837884848</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.020154997235525</v>
+        <v>1.021162401210773</v>
       </c>
       <c r="N13">
-        <v>1.005868499762363</v>
+        <v>1.009937619944851</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.025630101410101</v>
+        <v>1.026426464108712</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.024686882821116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.026072128612328</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018150905073065</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,105 +1183,123 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9771460026895781</v>
+        <v>0.9793789220545998</v>
       </c>
       <c r="D14">
-        <v>1.0050784965075</v>
+        <v>1.006896603785879</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.006626908053191</v>
+        <v>1.007578106926839</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.038557336582541</v>
+        <v>1.039332131966674</v>
       </c>
       <c r="J14">
-        <v>1.007538503665343</v>
+        <v>1.009672376965632</v>
       </c>
       <c r="K14">
-        <v>1.019922115190556</v>
+        <v>1.021706421589916</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.021441729778157</v>
+        <v>1.022375295719978</v>
       </c>
       <c r="N14">
-        <v>1.00626319131926</v>
+        <v>1.010123964525385</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.026822353152331</v>
+        <v>1.027560245215808</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.025226008467687</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.026503292695447</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018307293344479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9777752108127409</v>
+        <v>0.9799332449435008</v>
       </c>
       <c r="D15">
-        <v>1.005493486925271</v>
+        <v>1.00724410562882</v>
       </c>
       <c r="E15">
         <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.007160398908942</v>
+        <v>1.008079211091957</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.038691192579094</v>
+        <v>1.03943608418322</v>
       </c>
       <c r="J15">
-        <v>1.00794582791758</v>
+        <v>1.010009021335441</v>
       </c>
       <c r="K15">
-        <v>1.020241186417448</v>
+        <v>1.021959513890338</v>
       </c>
       <c r="L15">
         <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.021877347862365</v>
+        <v>1.022779266790865</v>
       </c>
       <c r="N15">
-        <v>1.006417354132654</v>
+        <v>1.010181646455002</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.027204540217165</v>
+        <v>1.027917399543583</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.025457558204629</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.026688753597613</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.01836719678065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9806972155430268</v>
+        <v>0.9825474078042759</v>
       </c>
       <c r="D16">
-        <v>1.007337230896174</v>
+        <v>1.008812028304228</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.009066125272861</v>
+        <v>1.009854149198429</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.039206458957324</v>
+        <v>1.039833821975515</v>
       </c>
       <c r="J16">
-        <v>1.009618867020914</v>
+        <v>1.011391931625878</v>
       </c>
       <c r="K16">
-        <v>1.021538968816026</v>
+        <v>1.022987765155614</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.023237392276067</v>
+        <v>1.024011572521954</v>
       </c>
       <c r="N16">
-        <v>1.006985983392854</v>
+        <v>1.010339870451479</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028240435234609</v>
+        <v>1.028852350204816</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.026378365106713</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.027419278708124</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018580269219206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9822436843083509</v>
+        <v>0.9839606611014717</v>
       </c>
       <c r="D17">
-        <v>1.00827990198197</v>
+        <v>1.00963397598645</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.009773615303302</v>
+        <v>1.010506072480374</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.039430375713106</v>
+        <v>1.040008505926771</v>
       </c>
       <c r="J17">
-        <v>1.010401737527904</v>
+        <v>1.012049473637173</v>
       </c>
       <c r="K17">
-        <v>1.022144295488973</v>
+        <v>1.023475169276191</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.023612420635685</v>
+        <v>1.024332366102408</v>
       </c>
       <c r="N17">
-        <v>1.007219572926648</v>
+        <v>1.010397565959096</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.028406570492236</v>
+        <v>1.028975675616256</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.026808984716395</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.027766764614374</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018665758133912</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9826798079070393</v>
+        <v>0.9843882200508853</v>
       </c>
       <c r="D18">
-        <v>1.00847856263929</v>
+        <v>1.009826044286058</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.009331138649691</v>
+        <v>1.010062394605359</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.039400588913291</v>
+        <v>1.039980161263417</v>
       </c>
       <c r="J18">
-        <v>1.010413506871892</v>
+        <v>1.012054278216516</v>
       </c>
       <c r="K18">
-        <v>1.022152532511012</v>
+        <v>1.02347729587623</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.022990725162906</v>
+        <v>1.023709669432225</v>
       </c>
       <c r="N18">
-        <v>1.007155353058139</v>
+        <v>1.010309966353001</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.027674679938375</v>
+        <v>1.028243114389575</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.026803023936021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.027755358293308</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018630077490904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9820915349171921</v>
+        <v>0.9838933216473825</v>
       </c>
       <c r="D19">
-        <v>1.008007179947382</v>
+        <v>1.00944368109572</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.007741677610467</v>
+        <v>1.008516966270843</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.039146848263341</v>
+        <v>1.03976995408323</v>
       </c>
       <c r="J19">
-        <v>1.009709905830742</v>
+        <v>1.011440663300262</v>
       </c>
       <c r="K19">
-        <v>1.021625305971387</v>
+        <v>1.023037691383151</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.021364270550638</v>
+        <v>1.022126523949518</v>
       </c>
       <c r="N19">
-        <v>1.006824389039487</v>
+        <v>1.010070268983672</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.026058513451252</v>
+        <v>1.026661392508308</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.026436729519101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.027451642784204</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018486108502697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9786033696718781</v>
+        <v>0.9807858218244623</v>
       </c>
       <c r="D20">
-        <v>1.005620655278658</v>
+        <v>1.007415824847176</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.003050788808057</v>
+        <v>1.003999535983052</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.038250935267112</v>
+        <v>1.039037159574559</v>
       </c>
       <c r="J20">
-        <v>1.006984762304508</v>
+        <v>1.009078052316732</v>
       </c>
       <c r="K20">
-        <v>1.019565387036861</v>
+        <v>1.021329517353826</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.017040205059711</v>
+        <v>1.017972421062519</v>
       </c>
       <c r="N20">
-        <v>1.005736204503696</v>
+        <v>1.009388672905834</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.022100045664707</v>
+        <v>1.022837813147765</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.024984240555046</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.026248259496476</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018030201223362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,105 +1617,123 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9726557001651246</v>
+        <v>0.9755217101682762</v>
       </c>
       <c r="D21">
-        <v>1.001805854361881</v>
+        <v>1.004215311470662</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9985584662894255</v>
+        <v>0.9998073779779655</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.037107154940226</v>
+        <v>1.03816357860435</v>
       </c>
       <c r="J21">
-        <v>1.003342895068003</v>
+        <v>1.006079747039595</v>
       </c>
       <c r="K21">
-        <v>1.016753094855749</v>
+        <v>1.019117261149688</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.013567200530832</v>
+        <v>1.014792400561916</v>
       </c>
       <c r="N21">
-        <v>1.004440691568278</v>
+        <v>1.008983735042725</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.019309599177394</v>
+        <v>1.020279291797215</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.022999078358209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.024687696310027</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01754505362738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9688935142859504</v>
+        <v>0.9721974792561322</v>
       </c>
       <c r="D22">
-        <v>0.9993987295900246</v>
+        <v>1.002201562534881</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9958509901417416</v>
+        <v>0.9972921989755364</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.03637920350864</v>
+        <v>1.037608897938119</v>
       </c>
       <c r="J22">
-        <v>1.00106242829171</v>
+        <v>1.004208382360004</v>
       </c>
       <c r="K22">
-        <v>1.014982107182334</v>
+        <v>1.017729531840868</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.011505090252817</v>
+        <v>1.012917489464581</v>
       </c>
       <c r="N22">
-        <v>1.003632234304512</v>
+        <v>1.008732440530103</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.017677525252363</v>
+        <v>1.01879538051034</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.021733154961469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.023691487963621</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017241027496932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9708800884210902</v>
+        <v>0.9739294310296176</v>
       </c>
       <c r="D23">
-        <v>1.000661682271661</v>
+        <v>1.003238806533075</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9972841717648595</v>
+        <v>0.9986136017232715</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.036758885688806</v>
+        <v>1.037888791729214</v>
       </c>
       <c r="J23">
-        <v>1.002260861937758</v>
+        <v>1.005168855524827</v>
       </c>
       <c r="K23">
-        <v>1.015907534630636</v>
+        <v>1.018435043079387</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.012595558502259</v>
+        <v>1.013899123962027</v>
       </c>
       <c r="N23">
-        <v>1.004054243099614</v>
+        <v>1.00881293645959</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.018540585702961</v>
+        <v>1.019572302298388</v>
       </c>
       <c r="Q23">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R23">
-        <v>1.022377695613755</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.024179597897605</v>
+      </c>
+      <c r="S23">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T23">
+        <v>1.017392060401441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9785259355741576</v>
+        <v>0.9807210486058623</v>
       </c>
       <c r="D24">
-        <v>1.005546956702206</v>
+        <v>1.007354042874468</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.002821663253333</v>
+        <v>1.003776671140088</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.03820722012309</v>
+        <v>1.038999563564436</v>
       </c>
       <c r="J24">
-        <v>1.006876427749475</v>
+        <v>1.008981969606629</v>
       </c>
       <c r="K24">
-        <v>1.019477356805715</v>
+        <v>1.021253232461288</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.016799407858528</v>
+        <v>1.017737787225286</v>
       </c>
       <c r="N24">
-        <v>1.005683777948748</v>
+        <v>1.009347927437107</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.021867747882608</v>
+        <v>1.022610431695269</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.024894185850264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.026163862875917</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018003867656819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9870080752020239</v>
+        <v>0.9885712174786526</v>
       </c>
       <c r="D25">
-        <v>1.010987536782583</v>
+        <v>1.012176166752853</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.00902188514088</v>
+        <v>1.009700318836677</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.039765988947892</v>
+        <v>1.040293880424059</v>
       </c>
       <c r="J25">
-        <v>1.011980721955859</v>
+        <v>1.013489423711115</v>
       </c>
       <c r="K25">
-        <v>1.023417646675817</v>
+        <v>1.024588358860826</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.021481743927759</v>
+        <v>1.022149893281347</v>
       </c>
       <c r="N25">
-        <v>1.007484266577935</v>
+        <v>1.010555326769605</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.025573591929526</v>
+        <v>1.026102398395711</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.02767734223281</v>
+        <v>1.028518799927372</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018739286794096</v>
       </c>
     </row>
   </sheetData>
